--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3339D722-56AA-42E0-BBCD-4306C9828997}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>EEUS</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>To do lijst indices Review December</t>
+  </si>
+  <si>
+    <t>DEUP</t>
+  </si>
+  <si>
+    <t>EUSP</t>
+  </si>
+  <si>
+    <t>EDWP</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J5" sqref="J5:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,22 +749,28 @@
     <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +789,14 @@
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,8 +815,14 @@
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,8 +841,14 @@
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
@@ -831,8 +867,14 @@
       <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
@@ -851,8 +893,14 @@
       <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -871,8 +919,14 @@
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -891,8 +945,14 @@
       <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
@@ -911,8 +971,14 @@
       <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
@@ -931,8 +997,14 @@
       <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
@@ -951,8 +1023,14 @@
       <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
@@ -971,8 +1049,14 @@
       <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
@@ -991,8 +1075,14 @@
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1012,7 +1102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1052,7 +1142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1072,7 +1162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1092,7 +1182,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
@@ -1112,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1132,7 +1222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1152,7 +1242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1172,7 +1262,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
@@ -1192,7 +1282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1212,7 +1302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1232,7 +1322,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
@@ -1252,7 +1342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
@@ -1354,6 +1444,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
   </headerFooter>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3339D722-56AA-42E0-BBCD-4306C9828997}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE46A7CC-7299-4E91-8A12-9022BF55D6D3}"/>
   <bookViews>
     <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>EEUS</t>
   </si>
@@ -354,6 +355,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Lex</t>
   </si>
 </sst>
 </file>
@@ -414,6 +421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1121,6 +1132,10 @@
       <c r="H20" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
@@ -1347,82 +1362,103 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
@@ -1449,4 +1485,16 @@
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB023AF-1979-4B95-B964-82DE009328D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD3BB67-A20E-4731-B952-B00C0D82ABED}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{541D2EF0-9D51-4F36-9D7E-9F29144B6739}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
   <si>
     <t>EEUS</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Issue</t>
   </si>
   <si>
     <t>Lex</t>
@@ -18255,8 +18252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18277,7 +18274,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <f>COUNTIF($J$7:$J$51,E2)</f>
@@ -18286,7 +18283,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">COUNTIF($J$7:$J$51,E3)</f>
@@ -18295,7 +18292,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -18304,13 +18301,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
         <v>119</v>
       </c>
-      <c r="K6" t="s">
-        <v>120</v>
-      </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -18326,10 +18323,10 @@
         <v>AEX All-Tradable</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s">
         <v>105</v>
@@ -18348,10 +18345,10 @@
         <v>AEX All-Tradable Alternative Weighting</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
         <v>105</v>
@@ -18380,7 +18377,7 @@
         <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
         <v>105</v>
@@ -18409,7 +18406,7 @@
         <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
@@ -18438,7 +18435,7 @@
         <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
         <v>105</v>
@@ -18467,7 +18464,7 @@
         <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
         <v>105</v>
@@ -18496,7 +18493,7 @@
         <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
         <v>105</v>
@@ -18525,7 +18522,7 @@
         <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
         <v>105</v>
@@ -18554,7 +18551,7 @@
         <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
         <v>105</v>
@@ -18583,7 +18580,7 @@
         <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
         <v>105</v>
@@ -18612,7 +18609,7 @@
         <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
         <v>105</v>
@@ -18641,7 +18638,7 @@
         <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
         <v>105</v>
@@ -18670,7 +18667,7 @@
         <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
@@ -18699,7 +18696,7 @@
         <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
         <v>105</v>
@@ -18725,11 +18722,11 @@
         <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18753,13 +18750,13 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18782,11 +18779,11 @@
         <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18809,10 +18806,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18835,11 +18832,11 @@
         <v>56</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18862,10 +18859,10 @@
         <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18888,10 +18885,10 @@
         <v>62</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18914,10 +18911,10 @@
         <v>65</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18940,10 +18937,10 @@
         <v>68</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18966,10 +18963,10 @@
         <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -18992,10 +18989,10 @@
         <v>74</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19018,10 +19015,10 @@
         <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19044,10 +19041,10 @@
         <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19063,10 +19060,10 @@
         <v>Euronext CAC 40 CHF</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19082,10 +19079,10 @@
         <v>EN Transatl Sustain and Cl Scr 60</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19101,10 +19098,10 @@
         <v>EN Glob Sustain and Cl Screened</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19120,10 +19117,10 @@
         <v>Euronext World Sustainability and Climate Screened</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19139,10 +19136,10 @@
         <v>Euronext Sustainable World 120</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19158,10 +19155,10 @@
         <v>Euronext Sustainable Europe 120 Index</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19177,10 +19174,10 @@
         <v>Euronext Sustainable France 20 Index</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19196,10 +19193,10 @@
         <v>Euronext Sustainable UK 20 Index</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19215,10 +19212,10 @@
         <v>Euronext Sustainable US 50</v>
       </c>
       <c r="J42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19234,13 +19231,13 @@
         <v>Euronext Sustainable Benelux 20 Index</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K43" t="s">
         <v>105</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19256,10 +19253,10 @@
         <v>Euronext Sustainable Euro 120 Index</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19275,10 +19272,10 @@
         <v>EN EZ Screened Climate Ambition 35 EW</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19294,10 +19291,10 @@
         <v>EN US Screened Climate Amb 25 EW EUR</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19313,10 +19310,10 @@
         <v>EN US Screened Climate Ambition 25 EW</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19332,10 +19329,10 @@
         <v>EN JPN Screened Climate Amb 30 EW EUR</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19351,10 +19348,10 @@
         <v>EN JPN Screened Climate Ambition 30 EW</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19370,10 +19367,10 @@
         <v>EN US Screened Climate Amb 35 EW EUR</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19389,10 +19386,10 @@
         <v>EN US Screened Climate Ambition 35 EW</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{541D2EF0-9D51-4F36-9D7E-9F29144B6739}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9244A7-B920-46C7-BE74-E13D6045362F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
   <si>
     <t>EEUS</t>
   </si>
@@ -372,12 +372,6 @@
     <t>Fixed basket + Capping</t>
   </si>
   <si>
-    <t>Sustainalytics</t>
-  </si>
-  <si>
-    <t>EDWPT -&gt; Small / Mid caps</t>
-  </si>
-  <si>
     <t>CAC40 in CHF</t>
   </si>
   <si>
@@ -403,6 +397,18 @@
   </si>
   <si>
     <t>AEX</t>
+  </si>
+  <si>
+    <t>DEUPT</t>
+  </si>
+  <si>
+    <t>DEZPT</t>
+  </si>
+  <si>
+    <t>EUSPT</t>
+  </si>
+  <si>
+    <t>EDWPT</t>
   </si>
 </sst>
 </file>
@@ -18252,8 +18258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18264,6 +18270,7 @@
     <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18274,7 +18281,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <f>COUNTIF($J$7:$J$51,E2)</f>
@@ -18283,7 +18290,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">COUNTIF($J$7:$J$51,E3)</f>
@@ -18301,10 +18308,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
         <v>107</v>
@@ -18323,10 +18330,10 @@
         <v>AEX All-Tradable</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
         <v>105</v>
@@ -18345,10 +18352,10 @@
         <v>AEX All-Tradable Alternative Weighting</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
         <v>105</v>
@@ -18377,7 +18384,7 @@
         <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
         <v>105</v>
@@ -18406,7 +18413,7 @@
         <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
@@ -18435,7 +18442,7 @@
         <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
         <v>105</v>
@@ -18464,7 +18471,7 @@
         <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
         <v>105</v>
@@ -18493,7 +18500,7 @@
         <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
         <v>105</v>
@@ -18522,7 +18529,7 @@
         <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
         <v>105</v>
@@ -18551,7 +18558,7 @@
         <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
         <v>105</v>
@@ -18580,7 +18587,7 @@
         <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
         <v>105</v>
@@ -18609,7 +18616,7 @@
         <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
         <v>105</v>
@@ -18638,7 +18645,7 @@
         <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
         <v>105</v>
@@ -18667,7 +18674,7 @@
         <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
@@ -18696,7 +18703,7 @@
         <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s">
         <v>105</v>
@@ -18721,13 +18728,14 @@
       <c r="H21" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
@@ -18748,16 +18756,16 @@
       <c r="H22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
@@ -18778,13 +18786,14 @@
       <c r="H23" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
@@ -18805,12 +18814,16 @@
       <c r="H24" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
@@ -18831,13 +18844,14 @@
       <c r="H25" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
@@ -18858,12 +18872,16 @@
       <c r="H26" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
@@ -18884,12 +18902,16 @@
       <c r="H27" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
@@ -18910,12 +18932,16 @@
       <c r="H28" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="J28" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
@@ -18936,12 +18962,16 @@
       <c r="H29" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="J29" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
@@ -18962,12 +18992,16 @@
       <c r="H30" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="J30" t="s">
-        <v>117</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
@@ -18988,12 +19022,16 @@
       <c r="H31" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="J31" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
@@ -19014,12 +19052,16 @@
       <c r="H32" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="J32" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
@@ -19040,12 +19082,16 @@
       <c r="H33" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="J33" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
@@ -19060,10 +19106,10 @@
         <v>Euronext CAC 40 CHF</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19079,10 +19125,10 @@
         <v>EN Transatl Sustain and Cl Scr 60</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19098,10 +19144,10 @@
         <v>EN Glob Sustain and Cl Screened</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19117,10 +19163,10 @@
         <v>Euronext World Sustainability and Climate Screened</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19139,7 +19185,7 @@
         <v>106</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19158,7 +19204,7 @@
         <v>106</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19177,7 +19223,7 @@
         <v>106</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19196,7 +19242,7 @@
         <v>106</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19215,7 +19261,7 @@
         <v>106</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19237,7 +19283,7 @@
         <v>105</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19256,7 +19302,7 @@
         <v>106</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19272,10 +19318,10 @@
         <v>EN EZ Screened Climate Ambition 35 EW</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19291,10 +19337,10 @@
         <v>EN US Screened Climate Amb 25 EW EUR</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19310,10 +19356,10 @@
         <v>EN US Screened Climate Ambition 25 EW</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19329,10 +19375,10 @@
         <v>EN JPN Screened Climate Amb 30 EW EUR</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19348,10 +19394,10 @@
         <v>EN JPN Screened Climate Ambition 30 EW</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19367,10 +19413,10 @@
         <v>EN US Screened Climate Amb 35 EW EUR</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.2">
@@ -19386,10 +19432,10 @@
         <v>EN US Screened Climate Ambition 35 EW</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8678C9EC-97BD-4C48-9EE6-5B1BFC43E0E0}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFB3D9C-719B-4755-8B8C-A431EFCBCF93}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="163">
   <si>
     <t>EEUS</t>
   </si>
@@ -913,7 +913,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,6 +1948,9 @@
       </c>
       <c r="J45" t="s">
         <v>115</v>
+      </c>
+      <c r="K45" t="s">
+        <v>105</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>112</v>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFB3D9C-719B-4755-8B8C-A431EFCBCF93}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB7DFC27-4196-475C-ADEC-2DC93838EDA3}"/>
   <bookViews>
     <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="169">
   <si>
     <t>EEUS</t>
   </si>
@@ -526,13 +526,31 @@
   </si>
   <si>
     <t>FRESG0000249</t>
+  </si>
+  <si>
+    <t>Kelly?</t>
+  </si>
+  <si>
+    <t>Question Francesco</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -543,6 +561,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -566,12 +591,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,10 +948,11 @@
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -939,7 +966,7 @@
       </c>
       <c r="F2">
         <f>COUNTIF($J$7:$J$51,E2)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -961,13 +988,25 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1753,8 +1792,11 @@
       <c r="E34" t="s">
         <v>125</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -1770,8 +1812,14 @@
       <c r="E35" t="s">
         <v>126</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J35" t="s">
         <v>115</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>113</v>
@@ -1787,8 +1835,14 @@
       <c r="E36" t="s">
         <v>127</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J36" t="s">
         <v>115</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>113</v>
@@ -1804,8 +1858,14 @@
       <c r="E37" t="s">
         <v>128</v>
       </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J37" t="s">
         <v>115</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>113</v>
@@ -1821,6 +1881,9 @@
       <c r="E38" t="s">
         <v>129</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J38" t="s">
         <v>106</v>
       </c>
@@ -1841,6 +1904,9 @@
       <c r="E39" t="s">
         <v>130</v>
       </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J39" t="s">
         <v>106</v>
       </c>
@@ -1858,6 +1924,9 @@
       <c r="E40" t="s">
         <v>131</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J40" t="s">
         <v>106</v>
       </c>
@@ -1875,6 +1944,9 @@
       <c r="E41" t="s">
         <v>132</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J41" t="s">
         <v>106</v>
       </c>
@@ -1892,6 +1964,9 @@
       <c r="E42" t="s">
         <v>133</v>
       </c>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J42" t="s">
         <v>106</v>
       </c>
@@ -1909,6 +1984,9 @@
       <c r="E43" t="s">
         <v>134</v>
       </c>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J43" t="s">
         <v>106</v>
       </c>
@@ -1929,6 +2007,9 @@
       <c r="E44" t="s">
         <v>135</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J44" t="s">
         <v>106</v>
       </c>
@@ -1946,6 +2027,9 @@
       <c r="E45" t="s">
         <v>136</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J45" t="s">
         <v>115</v>
       </c>
@@ -1966,8 +2050,14 @@
       <c r="E46" t="s">
         <v>137</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J46" t="s">
         <v>115</v>
+      </c>
+      <c r="K46" t="s">
+        <v>164</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>112</v>
@@ -1983,6 +2073,9 @@
       <c r="E47" t="s">
         <v>138</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J47" t="s">
         <v>115</v>
       </c>
@@ -2000,6 +2093,9 @@
       <c r="E48" t="s">
         <v>139</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J48" t="s">
         <v>115</v>
       </c>
@@ -2017,6 +2113,9 @@
       <c r="E49" t="s">
         <v>140</v>
       </c>
+      <c r="F49" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J49" t="s">
         <v>115</v>
       </c>
@@ -2034,6 +2133,9 @@
       <c r="E50" t="s">
         <v>141</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J50" t="s">
         <v>115</v>
       </c>
@@ -2050,6 +2152,9 @@
       </c>
       <c r="E51" t="s">
         <v>142</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>115</v>
@@ -2071,7 +2176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB023AF-1979-4B95-B964-82DE009328D3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB7DFC27-4196-475C-ADEC-2DC93838EDA3}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD114B5B-7876-4572-BABD-220F2AD6B434}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="173">
   <si>
     <t>EEUS</t>
   </si>
@@ -528,9 +528,6 @@
     <t>FRESG0000249</t>
   </si>
   <si>
-    <t>Kelly?</t>
-  </si>
-  <si>
     <t>Question Francesco</t>
   </si>
   <si>
@@ -544,13 +541,28 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>EHNI</t>
+  </si>
+  <si>
+    <t>FCLSP</t>
+  </si>
+  <si>
+    <t>C6RIP</t>
+  </si>
+  <si>
+    <t>SBF80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -570,6 +582,11 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibry"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,7 +596,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -587,22 +604,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -936,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -989,16 +1033,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>116</v>
@@ -1796,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -2034,7 +2078,7 @@
         <v>115</v>
       </c>
       <c r="K45" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>112</v>
@@ -2057,7 +2101,7 @@
         <v>115</v>
       </c>
       <c r="K46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>112</v>
@@ -2079,6 +2123,9 @@
       <c r="J47" t="s">
         <v>115</v>
       </c>
+      <c r="K47" t="s">
+        <v>163</v>
+      </c>
       <c r="L47" s="2" t="s">
         <v>112</v>
       </c>
@@ -2099,6 +2146,9 @@
       <c r="J48" t="s">
         <v>115</v>
       </c>
+      <c r="K48" t="s">
+        <v>163</v>
+      </c>
       <c r="L48" s="2" t="s">
         <v>112</v>
       </c>
@@ -2119,6 +2169,9 @@
       <c r="J49" t="s">
         <v>115</v>
       </c>
+      <c r="K49" t="s">
+        <v>163</v>
+      </c>
       <c r="L49" s="2" t="s">
         <v>112</v>
       </c>
@@ -2139,6 +2192,9 @@
       <c r="J50" t="s">
         <v>115</v>
       </c>
+      <c r="K50" t="s">
+        <v>163</v>
+      </c>
       <c r="L50" s="2" t="s">
         <v>112</v>
       </c>
@@ -2159,11 +2215,54 @@
       <c r="J51" t="s">
         <v>115</v>
       </c>
+      <c r="K51" t="s">
+        <v>163</v>
+      </c>
       <c r="L51" s="2" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="53" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="C56" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" t="s">
+        <v>115</v>
+      </c>
+      <c r="K56" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A55=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD114B5B-7876-4572-BABD-220F2AD6B434}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1EFD46-370C-4B8E-BD38-DE757C4714F6}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="174">
   <si>
     <t>EEUS</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>SBF80</t>
+  </si>
+  <si>
+    <t>Same EZCLA etc</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2236,6 +2239,9 @@
       </c>
       <c r="J54" t="s">
         <v>115</v>
+      </c>
+      <c r="L54" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="14.25" x14ac:dyDescent="0.2">

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1EFD46-370C-4B8E-BD38-DE757C4714F6}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E82FD2-8FBD-4496-BB50-BEA3D5688A85}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$O$97</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="350">
   <si>
     <t>EEUS</t>
   </si>
@@ -559,13 +563,544 @@
   </si>
   <si>
     <t>Same EZCLA etc</t>
+  </si>
+  <si>
+    <t>Cut off date</t>
+  </si>
+  <si>
+    <t>Review Announcement date</t>
+  </si>
+  <si>
+    <t>Weight based on</t>
+  </si>
+  <si>
+    <t>Review composition date</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Effective Date Review</t>
+  </si>
+  <si>
+    <t>Mnemo(s)</t>
+  </si>
+  <si>
+    <t>Name Group</t>
+  </si>
+  <si>
+    <t>Data Provider</t>
+  </si>
+  <si>
+    <t>Person 1</t>
+  </si>
+  <si>
+    <t>Method 1</t>
+  </si>
+  <si>
+    <t>Person 2</t>
+  </si>
+  <si>
+    <t>Method 2</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Euronext Developed World</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>Dataiku</t>
+  </si>
+  <si>
+    <t>DASP</t>
+  </si>
+  <si>
+    <t>Euronext Developed Asia</t>
+  </si>
+  <si>
+    <t>DAPPR</t>
+  </si>
+  <si>
+    <t>Euronext Developed Asia Pacific</t>
+  </si>
+  <si>
+    <t>CANP</t>
+  </si>
+  <si>
+    <t>Euronext Developed Canada</t>
+  </si>
+  <si>
+    <t>Euronext Developed Europe</t>
+  </si>
+  <si>
+    <t>DEZP</t>
+  </si>
+  <si>
+    <t>Euronext Developed Eurozone</t>
+  </si>
+  <si>
+    <t>EJPP</t>
+  </si>
+  <si>
+    <t>Euronext Developed Japan</t>
+  </si>
+  <si>
+    <t>DNAP</t>
+  </si>
+  <si>
+    <t>Euronext Developed North America</t>
+  </si>
+  <si>
+    <t>DPAP</t>
+  </si>
+  <si>
+    <t>Euronext Developed Pacific</t>
+  </si>
+  <si>
+    <t>ECHP</t>
+  </si>
+  <si>
+    <t>Euronext Developed Switzerland</t>
+  </si>
+  <si>
+    <t>EUKP</t>
+  </si>
+  <si>
+    <t>Euronext Developed UK</t>
+  </si>
+  <si>
+    <t>Euronext Developed USA</t>
+  </si>
+  <si>
+    <t>CANPT</t>
+  </si>
+  <si>
+    <t>EN Canada Total Market</t>
+  </si>
+  <si>
+    <t>DAPPT</t>
+  </si>
+  <si>
+    <t>EN Developed Asia Pacific Total Market</t>
+  </si>
+  <si>
+    <t>DASPT</t>
+  </si>
+  <si>
+    <t>EN Developed Asia Total Market</t>
+  </si>
+  <si>
+    <t>EN Developed Europe Total Market</t>
+  </si>
+  <si>
+    <t>EN Developed Eurozone Total Market</t>
+  </si>
+  <si>
+    <t>DNAPT</t>
+  </si>
+  <si>
+    <t>EN Developed NA Total Market</t>
+  </si>
+  <si>
+    <t>DPAPT</t>
+  </si>
+  <si>
+    <t>EN Developed Pacific Total Market</t>
+  </si>
+  <si>
+    <t>EJPPT</t>
+  </si>
+  <si>
+    <t>EN Japan Total Market</t>
+  </si>
+  <si>
+    <t>ECHPT</t>
+  </si>
+  <si>
+    <t>EN Switzerland Total Market</t>
+  </si>
+  <si>
+    <t>EUKPT</t>
+  </si>
+  <si>
+    <t>EN UK Total Market</t>
+  </si>
+  <si>
+    <t>EN USA Total Market</t>
+  </si>
+  <si>
+    <t>EN Developed World Total Market</t>
+  </si>
+  <si>
+    <t>AEXEW CACEW CLEW</t>
+  </si>
+  <si>
+    <t>CAC/AEX Equal Weight</t>
+  </si>
+  <si>
+    <t>AEX All Tradeable</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Old Sheet</t>
+  </si>
+  <si>
+    <t>Free float &amp; shares changed in March, quarterly if free change &gt;10% or number shares change &gt;20%</t>
+  </si>
+  <si>
+    <t>AEX Alternative Weighting</t>
+  </si>
+  <si>
+    <t>BNEW</t>
+  </si>
+  <si>
+    <t>Bene40 Equal Weight</t>
+  </si>
+  <si>
+    <t>SBF 80</t>
+  </si>
+  <si>
+    <t>EZ40P</t>
+  </si>
+  <si>
+    <t>Eurozone 40 EW</t>
+  </si>
+  <si>
+    <t>Underlying universe is mother index Eurozone 300</t>
+  </si>
+  <si>
+    <t>EFMEP</t>
+  </si>
+  <si>
+    <t>Founding Members</t>
+  </si>
+  <si>
+    <t>Mother index Eurozone 300 can be used as underlying (not in rulebook)</t>
+  </si>
+  <si>
+    <t>EZ15P EZN1P</t>
+  </si>
+  <si>
+    <t>Eurozone</t>
+  </si>
+  <si>
+    <t>FRECP</t>
+  </si>
+  <si>
+    <t>Euronext France 20-40 Challengers</t>
+  </si>
+  <si>
+    <t>FRN4P</t>
+  </si>
+  <si>
+    <t>France Next 40</t>
+  </si>
+  <si>
+    <t>Selection out of SBF120</t>
+  </si>
+  <si>
+    <t>FR20P</t>
+  </si>
+  <si>
+    <t>France 20</t>
+  </si>
+  <si>
+    <t>Selection out of CAC40</t>
+  </si>
+  <si>
+    <t>Responsible Investment CAC Large 60</t>
+  </si>
+  <si>
+    <t>Underlying is CAC40 and Large 60</t>
+  </si>
+  <si>
+    <t>F4RIP</t>
+  </si>
+  <si>
+    <t>Responsible Investment Euronext France 40</t>
+  </si>
+  <si>
+    <t>EUS5P</t>
+  </si>
+  <si>
+    <t>Transatlantic 50 EW</t>
+  </si>
+  <si>
+    <t>Underlying universe is mother index Eurozone 300 + 50 largest FF Mcap US; Composition to be announced on Wednesday on base of Tuesday close</t>
+  </si>
+  <si>
+    <t>ERI5P</t>
+  </si>
+  <si>
+    <t>Responsible Investment Euro 50</t>
+  </si>
+  <si>
+    <t>CLAMP</t>
+  </si>
+  <si>
+    <t>Euronext EZ Scr Clim Amb 40 EW</t>
+  </si>
+  <si>
+    <t>New Sheet</t>
+  </si>
+  <si>
+    <t>Underlying is EZ300</t>
+  </si>
+  <si>
+    <t>Underlying is NA500, EUR version</t>
+  </si>
+  <si>
+    <t>EN US Screened Climate Ambition 25 EW USD</t>
+  </si>
+  <si>
+    <t>Underlying is NA500, USD version</t>
+  </si>
+  <si>
+    <t>Aggregated index of USCEG &amp; EZCLG</t>
+  </si>
+  <si>
+    <t>Underlying AS500, ISS-ESG Oekom Trust Carbon data used</t>
+  </si>
+  <si>
+    <t>Underlying NA500, ISS-ESG Oekom Trust Carbon data used</t>
+  </si>
+  <si>
+    <t>Underlying are three underlying indices</t>
+  </si>
+  <si>
+    <t>Based on 3 underlying indices</t>
+  </si>
+  <si>
+    <t>France Climate Screened</t>
+  </si>
+  <si>
+    <t>WIFRP</t>
+  </si>
+  <si>
+    <t>Euronext World Invest In France 40</t>
+  </si>
+  <si>
+    <t>Business France;ISS ESG;SESAMm</t>
+  </si>
+  <si>
+    <t>INFRP</t>
+  </si>
+  <si>
+    <t>Euronext Invest In France 40</t>
+  </si>
+  <si>
+    <t>ELUXP</t>
+  </si>
+  <si>
+    <t>Euronext Europe Luxury</t>
+  </si>
+  <si>
+    <t>FRD4P</t>
+  </si>
+  <si>
+    <t>Euronext France Developpement 40</t>
+  </si>
+  <si>
+    <t>Business France;ISS ESG;SESAMm;Trendeo</t>
+  </si>
+  <si>
+    <t>TECHP ENRGP UTIL BASM FINA CSTA TELEP HEAC INDU CDIS</t>
+  </si>
+  <si>
+    <t>Eurozone Sectorial Indices</t>
+  </si>
+  <si>
+    <t>FRI4P</t>
+  </si>
+  <si>
+    <t>Euronext France Investissement 40</t>
+  </si>
+  <si>
+    <t>TBMA TCDI TCST TENR TFINP THEC TIND TTEC TTEL TUTI</t>
+  </si>
+  <si>
+    <t>Transatlantic Sectorial Indices</t>
+  </si>
+  <si>
+    <t>DWREP DEREP DAREP EUREP</t>
+  </si>
+  <si>
+    <t>Real Estate Sectorial Indices</t>
+  </si>
+  <si>
+    <t>UUTI UTEL UTEC UIND UHEC UFIN UENR UCST UCDI UBMA</t>
+  </si>
+  <si>
+    <t>US Sectorial Indices</t>
+  </si>
+  <si>
+    <t>ESVEP</t>
+  </si>
+  <si>
+    <t>Euronext Souveraineté Européenne</t>
+  </si>
+  <si>
+    <t>GICP</t>
+  </si>
+  <si>
+    <t>Euronext Global Industry Champions 30</t>
+  </si>
+  <si>
+    <t>BE1P</t>
+  </si>
+  <si>
+    <t>Euronext Banks Eurozone Select 10 EW</t>
+  </si>
+  <si>
+    <t>UML1P</t>
+  </si>
+  <si>
+    <t>Euronext US Market Leaders 100</t>
+  </si>
+  <si>
+    <t>TTIT</t>
+  </si>
+  <si>
+    <t>Euronext Transatlantic Sector Titans</t>
+  </si>
+  <si>
+    <t>EIAPR</t>
+  </si>
+  <si>
+    <t>EN Intelligence Artificielle</t>
+  </si>
+  <si>
+    <t>GSFBP</t>
+  </si>
+  <si>
+    <t>EN Germany Selection Fixed Basket</t>
+  </si>
+  <si>
+    <t>EUADP</t>
+  </si>
+  <si>
+    <t>EN Europe Aerospace and Defense PR</t>
+  </si>
+  <si>
+    <t>EDEFP</t>
+  </si>
+  <si>
+    <t>Euronext Europe Defense Fixed Basket PR</t>
+  </si>
+  <si>
+    <t>EESF</t>
+  </si>
+  <si>
+    <t>EN European Sovereignty Fixed Basket</t>
+  </si>
+  <si>
+    <t>EZ60P</t>
+  </si>
+  <si>
+    <t>Euronext Eurozone 60 EW</t>
+  </si>
+  <si>
+    <t>ETPFB</t>
+  </si>
+  <si>
+    <t>Euronext Transatlantic Pharmaceuticals Selection Fixed Basket</t>
+  </si>
+  <si>
+    <t>EFESP</t>
+  </si>
+  <si>
+    <t>Euronext Financing European Sovereignty 30</t>
+  </si>
+  <si>
+    <t>Euronext Horizon Energetique et Industriel</t>
+  </si>
+  <si>
+    <t>Sustainalytics</t>
+  </si>
+  <si>
+    <t>EES2</t>
+  </si>
+  <si>
+    <t>Euronext European Sovereignty 20 EW</t>
+  </si>
+  <si>
+    <t>ETSEP</t>
+  </si>
+  <si>
+    <t>Euronext Transatlantic Selection Fixed Basket</t>
+  </si>
+  <si>
+    <t>ELTFP</t>
+  </si>
+  <si>
+    <t>Euronext Luxury Transatlantic Fixed Basket</t>
+  </si>
+  <si>
+    <t>ELECP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euronext Electrification Fixed Basket </t>
+  </si>
+  <si>
+    <t>EEFAP</t>
+  </si>
+  <si>
+    <t>Euronext Europe Fallen Angels</t>
+  </si>
+  <si>
+    <t>EEUS EEAPP EECP EEBRP EEUU EEOG</t>
+  </si>
+  <si>
+    <t>EWHC EWAP EWBR EWOU EWOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN European Defense Fixed Basket </t>
+  </si>
+  <si>
+    <t>EMLS</t>
+  </si>
+  <si>
+    <t>Euronext Transatlantic Market Leaders Select</t>
+  </si>
+  <si>
+    <t>Review ready</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Macro + Capping?</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -590,16 +1125,65 @@
       <color theme="1"/>
       <name val="Calibry"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008D7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -622,11 +1206,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,11 +1234,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -985,11 +1660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
@@ -1002,12 +1677,12 @@
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="E2" t="s">
         <v>115</v>
       </c>
@@ -1016,7 +1691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="E3" t="s">
         <v>114</v>
       </c>
@@ -1025,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="E4" t="s">
         <v>106</v>
       </c>
@@ -1034,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="C6" s="3" t="s">
         <v>164</v>
       </c>
@@ -1057,7 +1732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15">
       <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1077,7 +1752,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15">
       <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1097,7 +1772,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1801,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15">
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1859,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15">
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1888,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15">
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15">
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1300,7 +1975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +2004,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" ht="15">
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1358,7 +2033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" ht="15">
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1387,7 +2062,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" ht="15">
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1416,7 +2091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" ht="15">
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1445,7 +2120,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" ht="15">
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1473,7 +2148,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" ht="15">
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1503,7 +2178,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" ht="15">
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1531,7 +2206,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" ht="15">
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1561,7 +2236,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" ht="15">
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1589,7 +2264,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" ht="15">
       <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1619,7 +2294,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" ht="15">
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1649,7 +2324,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" ht="15">
       <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1679,7 +2354,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" ht="15">
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
@@ -1709,7 +2384,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" ht="15">
       <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
@@ -1739,7 +2414,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" ht="15">
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
@@ -1769,7 +2444,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" ht="15">
       <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
@@ -1799,7 +2474,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" ht="15">
       <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
@@ -1829,7 +2504,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" ht="15">
       <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
@@ -1849,7 +2524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" ht="15">
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
@@ -1872,7 +2547,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" ht="15">
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
@@ -1895,7 +2570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" ht="15">
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
@@ -1918,7 +2593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" ht="15">
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
@@ -1941,7 +2616,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" ht="15">
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
@@ -1961,7 +2636,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" ht="15">
       <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
@@ -1981,7 +2656,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" ht="15">
       <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2001,7 +2676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" ht="15">
       <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
@@ -2021,7 +2696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" ht="15">
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2044,7 +2719,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" ht="15">
       <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2064,7 +2739,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" ht="15">
       <c r="C45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2087,7 +2762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" ht="15">
       <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2110,7 +2785,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" ht="15">
       <c r="C47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2133,7 +2808,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" ht="15">
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
@@ -2156,7 +2831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" ht="15">
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2179,7 +2854,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" ht="15">
       <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
@@ -2202,7 +2877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" ht="15">
       <c r="C51" s="1" t="s">
         <v>100</v>
       </c>
@@ -2225,15 +2900,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" ht="15">
       <c r="C53" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15">
       <c r="C54" s="1" t="s">
         <v>170</v>
       </c>
@@ -2244,7 +2922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" ht="14.25">
       <c r="C55" s="4" t="s">
         <v>171</v>
       </c>
@@ -2252,7 +2930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" ht="15">
       <c r="C56" s="5" t="s">
         <v>172</v>
       </c>
@@ -2265,7 +2943,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A55=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2278,6 +2956,4635 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.125" customWidth="1"/>
+    <col min="9" max="9" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="125.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15">
+      <c r="A1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" hidden="1">
+      <c r="A2" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="8">
+        <v>46008</v>
+      </c>
+      <c r="D2" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E2" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F2" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" hidden="1">
+      <c r="A3" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="8">
+        <v>46008</v>
+      </c>
+      <c r="D3" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E3" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F3" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" hidden="1">
+      <c r="A4" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D4" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E4" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F4" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" hidden="1">
+      <c r="A5" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D5" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E5" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F5" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" hidden="1">
+      <c r="A6" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D6" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E6" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F6" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15">
+      <c r="A7" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D7" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E7" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F7" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" hidden="1">
+      <c r="A8" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B8" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C8" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D8" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E8" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F8" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" hidden="1">
+      <c r="A9" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B9" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D9" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E9" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F9" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
+      <c r="A10" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D10" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E10" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F10" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" hidden="1">
+      <c r="A11" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B11" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D11" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E11" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F11" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" hidden="1">
+      <c r="A12" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B12" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D12" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E12" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F12" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" hidden="1">
+      <c r="A13" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B13" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C13" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D13" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E13" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F13" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" hidden="1">
+      <c r="A14" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B14" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C14" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D14" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E14" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F14" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" hidden="1">
+      <c r="A15" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B15" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C15" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D15" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E15" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F15" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" hidden="1">
+      <c r="A16" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B16" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D16" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E16" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F16" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" hidden="1">
+      <c r="A17" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B17" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C17" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D17" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E17" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F17" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" hidden="1">
+      <c r="A18" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B18" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C18" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D18" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E18" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F18" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" hidden="1">
+      <c r="A19" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B19" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C19" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D19" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E19" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F19" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" hidden="1">
+      <c r="A20" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B20" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C20" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D20" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E20" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F20" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" hidden="1">
+      <c r="A21" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B21" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D21" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E21" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F21" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" hidden="1">
+      <c r="A22" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B22" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C22" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D22" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E22" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F22" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" hidden="1">
+      <c r="A23" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D23" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E23" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F23" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="A24" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D24" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E24" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F24" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" hidden="1">
+      <c r="A25" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B25" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C25" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D25" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E25" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F25" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" hidden="1">
+      <c r="A26" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B26" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C26" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D26" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E26" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F26" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" hidden="1">
+      <c r="A27" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D27" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E27" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F27" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" hidden="1">
+      <c r="A28" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C28" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D28" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E28" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F28" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" hidden="1">
+      <c r="A29" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B29" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C29" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D29" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E29" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F29" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15">
+      <c r="A30" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D30" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E30" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F30" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" hidden="1">
+      <c r="A31" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D31" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E31" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F31" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" hidden="1">
+      <c r="A32" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D32" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E32" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F32" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" hidden="1">
+      <c r="A33" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D33" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E33" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F33" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" hidden="1">
+      <c r="A34" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D34" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E34" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F34" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" hidden="1">
+      <c r="A35" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D35" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E35" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F35" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" hidden="1">
+      <c r="A36" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D36" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E36" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F36" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" hidden="1">
+      <c r="A37" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="8">
+        <v>46008</v>
+      </c>
+      <c r="D37" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E37" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F37" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" hidden="1">
+      <c r="A38" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D38" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E38" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F38" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15">
+      <c r="A39" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D39" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E39" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F39" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" hidden="1">
+      <c r="A40" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D40" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E40" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F40" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15">
+      <c r="A41" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D41" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E41" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F41" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" hidden="1">
+      <c r="A42" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B42" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C42" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D42" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E42" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F42" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" hidden="1">
+      <c r="A43" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B43" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C43" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D43" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E43" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F43" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" hidden="1">
+      <c r="A44" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D44" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E44" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F44" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" hidden="1">
+      <c r="A45" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D45" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E45" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F45" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" hidden="1">
+      <c r="A46" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D46" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E46" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F46" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" hidden="1">
+      <c r="A47" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D47" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E47" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F47" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15">
+      <c r="A48" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D48" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E48" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F48" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" hidden="1">
+      <c r="A49" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D49" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E49" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F49" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" hidden="1">
+      <c r="A50" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D50" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E50" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F50" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" hidden="1">
+      <c r="A51" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D51" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E51" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F51" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" hidden="1">
+      <c r="A52" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D52" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E52" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F52" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" hidden="1">
+      <c r="A53" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D53" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E53" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F53" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" hidden="1">
+      <c r="A54" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D54" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E54" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F54" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" hidden="1">
+      <c r="A55" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B55" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C55" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D55" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E55" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F55" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" hidden="1">
+      <c r="A56" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B56" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C56" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D56" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E56" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F56" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" hidden="1">
+      <c r="A57" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D57" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E57" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F57" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" hidden="1">
+      <c r="A58" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D58" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E58" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F58" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" hidden="1">
+      <c r="A59" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D59" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E59" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F59" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" hidden="1">
+      <c r="A60" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D60" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E60" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F60" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" hidden="1">
+      <c r="A61" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B61" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C61" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D61" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E61" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F61" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" hidden="1">
+      <c r="A62" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B62" s="8">
+        <v>46002</v>
+      </c>
+      <c r="C62" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D62" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E62" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F62" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" hidden="1">
+      <c r="A63" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D63" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E63" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F63" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" hidden="1">
+      <c r="A64" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D64" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E64" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F64" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15" hidden="1">
+      <c r="A65" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D65" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E65" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F65" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15" hidden="1">
+      <c r="A66" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D66" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E66" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F66" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15" hidden="1">
+      <c r="A67" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D67" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E67" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F67" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15" hidden="1">
+      <c r="A68" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D68" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E68" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F68" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15">
+      <c r="A69" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D69" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E69" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F69" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15" hidden="1">
+      <c r="A70" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D70" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E70" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F70" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15" hidden="1">
+      <c r="A71" s="14">
+        <v>45982</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="14">
+        <v>46007</v>
+      </c>
+      <c r="D71" s="14">
+        <v>46008</v>
+      </c>
+      <c r="E71" s="14">
+        <v>46010</v>
+      </c>
+      <c r="F71" s="14">
+        <v>46013</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15" hidden="1">
+      <c r="A72" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D72" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E72" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F72" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15">
+      <c r="A73" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D73" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E73" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F73" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15" hidden="1">
+      <c r="A74" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D74" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E74" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F74" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15">
+      <c r="A75" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D75" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E75" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F75" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" hidden="1">
+      <c r="A76" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D76" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E76" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F76" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15" hidden="1">
+      <c r="A77" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D77" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E77" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F77" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15" hidden="1">
+      <c r="A78" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D78" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E78" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F78" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15" hidden="1">
+      <c r="A79" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D79" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E79" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F79" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15" hidden="1">
+      <c r="A80" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D80" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E80" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F80" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" hidden="1">
+      <c r="A81" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D81" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E81" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F81" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15">
+      <c r="A82" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D82" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E82" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F82" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15">
+      <c r="A83" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D83" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E83" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F83" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15">
+      <c r="A84" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D84" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E84" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F84" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15" hidden="1">
+      <c r="A85" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D85" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E85" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F85" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15" hidden="1">
+      <c r="A86" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D86" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E86" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F86" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15" hidden="1">
+      <c r="A87" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D87" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E87" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F87" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15" hidden="1">
+      <c r="A88" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D88" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E88" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F88" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15" hidden="1">
+      <c r="A89" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D89" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E89" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F89" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M89" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N89" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15" hidden="1">
+      <c r="A90" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D90" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E90" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F90" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15" hidden="1">
+      <c r="A91" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D91" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E91" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F91" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15" hidden="1">
+      <c r="A92" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D92" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E92" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F92" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" hidden="1">
+      <c r="A93" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D93" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E93" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F93" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" hidden="1">
+      <c r="A94" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D94" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E94" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F94" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" hidden="1">
+      <c r="A95" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D95" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E95" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F95" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" hidden="1">
+      <c r="A96" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D96" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E96" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F96" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" hidden="1">
+      <c r="A97" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D97" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E97" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F97" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="I78" name="Database_1"/>
+  </protectedRanges>
+  <autoFilter ref="A1:O97" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="Check"/>
+        <filter val="Macro"/>
+        <filter val="Macro + Capping?"/>
+        <filter val="Roberto"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A1:O1 O2:O97 A2:I97">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$A1=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$A27=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J70">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$A2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:L71">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$A71=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:N97">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A72=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:L70">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A27=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:N26">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$A2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:N71">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$A27=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB023AF-1979-4B95-B964-82DE009328D3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2285,7 +7592,7 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E82FD2-8FBD-4496-BB50-BEA3D5688A85}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0317F1D1-5316-4B0F-956C-06DAFC5B0FE8}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="349">
   <si>
     <t>EEUS</t>
   </si>
@@ -1081,16 +1081,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Roberto</t>
-  </si>
-  <si>
     <t>Macro</t>
   </si>
   <si>
-    <t>Macro + Capping?</t>
-  </si>
-  <si>
-    <t>Check</t>
+    <t>Fix Stellantis bug</t>
+  </si>
+  <si>
+    <t>Macro + Capping? + NACE</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1097,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1660,11 +1657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
@@ -1677,12 +1674,12 @@
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>115</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>114</v>
       </c>
@@ -1700,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>106</v>
       </c>
@@ -1709,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>164</v>
       </c>
@@ -1732,7 +1729,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1752,7 +1749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1772,7 +1769,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1885,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1917,7 +1914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +2001,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15">
+    <row r="17" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2033,7 +2030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="15">
+    <row r="18" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="15">
+    <row r="19" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15">
+    <row r="20" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="15">
+    <row r="21" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2145,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="3:12" ht="15">
+    <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2178,7 +2175,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="3:12" ht="15">
+    <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +2203,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="3:12" ht="15">
+    <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2236,7 +2233,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:12" ht="15">
+    <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2264,7 +2261,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12" ht="15">
+    <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2294,7 +2291,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:12" ht="15">
+    <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2324,7 +2321,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12" ht="15">
+    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2354,7 +2351,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:12" ht="15">
+    <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,7 +2381,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:12" ht="15">
+    <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2414,7 +2411,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="3:12" ht="15">
+    <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2444,7 +2441,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="3:12" ht="15">
+    <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
@@ -2474,7 +2471,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="3:12" ht="15">
+    <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2504,7 +2501,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="3:12" ht="15">
+    <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="15">
+    <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="15">
+    <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="15">
+    <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="15">
+    <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
@@ -2616,7 +2613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="15">
+    <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2636,7 +2633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="15">
+    <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="15">
+    <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2676,7 +2673,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="15">
+    <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="15">
+    <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="15">
+    <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2739,7 +2736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="15">
+    <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="15">
+    <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="15">
+    <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="15">
+    <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="15">
+    <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="15">
+    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
@@ -2877,7 +2874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="15">
+    <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>100</v>
       </c>
@@ -2900,7 +2897,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="15">
+    <row r="53" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>169</v>
       </c>
@@ -2911,7 +2908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="15">
+    <row r="54" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>170</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="14.25">
+    <row r="55" spans="3:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
         <v>171</v>
       </c>
@@ -2930,7 +2927,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="15">
+    <row r="56" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C56" s="5" t="s">
         <v>172</v>
       </c>
@@ -2958,13 +2955,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D101" sqref="D101:D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
@@ -2981,7 +2978,7 @@
     <col min="15" max="15" width="125.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>174</v>
       </c>
@@ -3028,7 +3025,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" hidden="1">
+    <row r="2" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>45982</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" hidden="1">
+    <row r="3" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45982</v>
       </c>
@@ -3122,7 +3119,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" hidden="1">
+    <row r="4" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>45982</v>
       </c>
@@ -3169,7 +3166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" hidden="1">
+    <row r="5" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>45982</v>
       </c>
@@ -3216,7 +3213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" hidden="1">
+    <row r="6" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>45982</v>
       </c>
@@ -3263,7 +3260,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>45982</v>
       </c>
@@ -3308,7 +3305,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" hidden="1">
+    <row r="8" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>45982</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" hidden="1">
+    <row r="9" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>45982</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>45982</v>
       </c>
@@ -3424,7 +3421,9 @@
       <c r="G10" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>345</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>269</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" hidden="1">
+    <row r="11" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45982</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" hidden="1">
+    <row r="12" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>45982</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" hidden="1">
+    <row r="13" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>45982</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" hidden="1">
+    <row r="14" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45982</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" hidden="1">
+    <row r="15" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>45982</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" hidden="1">
+    <row r="16" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>45982</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" hidden="1">
+    <row r="17" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>45982</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1">
+    <row r="18" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>45982</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" hidden="1">
+    <row r="19" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>45982</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" hidden="1">
+    <row r="20" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>45982</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" hidden="1">
+    <row r="21" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>45982</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" hidden="1">
+    <row r="22" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>45982</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" hidden="1">
+    <row r="23" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>45982</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>45982</v>
       </c>
@@ -4080,7 +4079,9 @@
       <c r="G24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I24" s="9" t="s">
         <v>49</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" hidden="1">
+    <row r="25" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>45982</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" hidden="1">
+    <row r="26" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>45982</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" hidden="1">
+    <row r="27" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>45982</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" hidden="1">
+    <row r="28" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>45982</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" hidden="1">
+    <row r="29" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>45982</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>45982</v>
       </c>
@@ -4360,7 +4361,9 @@
       <c r="G30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I30" s="15" t="s">
         <v>341</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" hidden="1">
+    <row r="31" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>45982</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" hidden="1">
+    <row r="32" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>45982</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" hidden="1">
+    <row r="33" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>45982</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" hidden="1">
+    <row r="34" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>45982</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" hidden="1">
+    <row r="35" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>45982</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" hidden="1">
+    <row r="36" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>45982</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" hidden="1">
+    <row r="37" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>45982</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" hidden="1">
+    <row r="38" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>45982</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15">
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>45982</v>
       </c>
@@ -4781,7 +4784,9 @@
       <c r="G39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I39" s="9" t="s">
         <v>43</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" hidden="1">
+    <row r="40" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>45982</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>45982</v>
       </c>
@@ -4873,7 +4878,9 @@
       <c r="G41" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I41" s="9" t="s">
         <v>312</v>
       </c>
@@ -4896,7 +4903,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" hidden="1">
+    <row r="42" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>45982</v>
       </c>
@@ -4943,7 +4950,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" hidden="1">
+    <row r="43" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>45982</v>
       </c>
@@ -4990,7 +4997,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" hidden="1">
+    <row r="44" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>45982</v>
       </c>
@@ -5037,7 +5044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" hidden="1">
+    <row r="45" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>45982</v>
       </c>
@@ -5084,7 +5091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" hidden="1">
+    <row r="46" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>45982</v>
       </c>
@@ -5131,7 +5138,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" hidden="1">
+    <row r="47" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45982</v>
       </c>
@@ -5178,7 +5185,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>45982</v>
       </c>
@@ -5200,7 +5207,9 @@
       <c r="G48" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I48" s="15" t="s">
         <v>343</v>
       </c>
@@ -5223,7 +5232,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" hidden="1">
+    <row r="49" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>45982</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" hidden="1">
+    <row r="50" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>45982</v>
       </c>
@@ -5317,7 +5326,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" hidden="1">
+    <row r="51" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>45982</v>
       </c>
@@ -5364,7 +5373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" hidden="1">
+    <row r="52" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>45982</v>
       </c>
@@ -5411,7 +5420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" hidden="1">
+    <row r="53" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>45982</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" hidden="1">
+    <row r="54" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>45982</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" hidden="1">
+    <row r="55" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>45982</v>
       </c>
@@ -5552,7 +5561,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" hidden="1">
+    <row r="56" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>45982</v>
       </c>
@@ -5599,7 +5608,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" hidden="1">
+    <row r="57" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>45982</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" hidden="1">
+    <row r="58" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>45982</v>
       </c>
@@ -5693,7 +5702,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" hidden="1">
+    <row r="59" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>45982</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" hidden="1">
+    <row r="60" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>45982</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" hidden="1">
+    <row r="61" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>45982</v>
       </c>
@@ -5834,7 +5843,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" hidden="1">
+    <row r="62" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>45982</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" hidden="1">
+    <row r="63" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>45982</v>
       </c>
@@ -5928,7 +5937,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15" hidden="1">
+    <row r="64" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>45982</v>
       </c>
@@ -5975,7 +5984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" hidden="1">
+    <row r="65" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>45982</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" hidden="1">
+    <row r="66" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>45982</v>
       </c>
@@ -6069,7 +6078,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" hidden="1">
+    <row r="67" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>45982</v>
       </c>
@@ -6116,7 +6125,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" hidden="1">
+    <row r="68" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>45982</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15">
+    <row r="69" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>45982</v>
       </c>
@@ -6186,7 +6195,7 @@
         <v>94</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>136</v>
@@ -6210,7 +6219,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" hidden="1">
+    <row r="70" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>45982</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15" hidden="1">
+    <row r="71" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>45982</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" hidden="1">
+    <row r="72" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>45982</v>
       </c>
@@ -6351,7 +6360,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>45982</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>170</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>280</v>
@@ -6398,7 +6407,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" hidden="1">
+    <row r="74" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>45982</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15">
+    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>45982</v>
       </c>
@@ -6492,7 +6501,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" hidden="1">
+    <row r="76" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>45982</v>
       </c>
@@ -6539,7 +6548,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" hidden="1">
+    <row r="77" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>45982</v>
       </c>
@@ -6586,7 +6595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" hidden="1">
+    <row r="78" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>45982</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" hidden="1">
+    <row r="79" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>45982</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" hidden="1">
+    <row r="80" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>45982</v>
       </c>
@@ -6727,7 +6736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" hidden="1">
+    <row r="81" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>45982</v>
       </c>
@@ -6774,7 +6783,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15">
+    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>45982</v>
       </c>
@@ -6797,7 +6806,7 @@
         <v>284</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>285</v>
@@ -6821,7 +6830,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15">
+    <row r="83" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>45982</v>
       </c>
@@ -6844,7 +6853,7 @@
         <v>98</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>140</v>
@@ -6868,7 +6877,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15">
+    <row r="84" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>45982</v>
       </c>
@@ -6891,7 +6900,7 @@
         <v>97</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>139</v>
@@ -6915,7 +6924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" hidden="1">
+    <row r="85" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>45982</v>
       </c>
@@ -6962,7 +6971,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" hidden="1">
+    <row r="86" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>45982</v>
       </c>
@@ -7009,7 +7018,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" hidden="1">
+    <row r="87" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>45982</v>
       </c>
@@ -7056,7 +7065,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" hidden="1">
+    <row r="88" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>45982</v>
       </c>
@@ -7103,7 +7112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" hidden="1">
+    <row r="89" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>45982</v>
       </c>
@@ -7150,7 +7159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" hidden="1">
+    <row r="90" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>45982</v>
       </c>
@@ -7197,7 +7206,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" hidden="1">
+    <row r="91" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>45982</v>
       </c>
@@ -7244,7 +7253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" hidden="1">
+    <row r="92" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>45982</v>
       </c>
@@ -7291,7 +7300,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" hidden="1">
+    <row r="93" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>45982</v>
       </c>
@@ -7338,7 +7347,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" hidden="1">
+    <row r="94" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>45982</v>
       </c>
@@ -7385,7 +7394,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15" hidden="1">
+    <row r="95" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>45982</v>
       </c>
@@ -7432,7 +7441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" hidden="1">
+    <row r="96" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>45982</v>
       </c>
@@ -7479,7 +7488,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15" hidden="1">
+    <row r="97" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>45982</v>
       </c>
@@ -7525,6 +7534,21 @@
       <c r="O97" s="4" t="s">
         <v>188</v>
       </c>
+    </row>
+    <row r="101" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="D105" s="1"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -7533,10 +7557,9 @@
   <autoFilter ref="A1:O97" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
     <filterColumn colId="7">
       <filters blank="1">
-        <filter val="Check"/>
+        <filter val="Fix Stellantis bug"/>
         <filter val="Macro"/>
-        <filter val="Macro + Capping?"/>
-        <filter val="Roberto"/>
+        <filter val="Macro + Capping? + NACE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7592,7 +7615,7 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0317F1D1-5316-4B0F-956C-06DAFC5B0FE8}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F862B6-3EB5-4FBE-B085-622BD97287CA}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$O$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="348">
   <si>
     <t>EEUS</t>
   </si>
@@ -1082,9 +1082,6 @@
   </si>
   <si>
     <t>Macro</t>
-  </si>
-  <si>
-    <t>Fix Stellantis bug</t>
   </si>
   <si>
     <t>Macro + Capping? + NACE</t>
@@ -1097,7 +1094,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1657,11 +1654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C28F-91C6-4BF4-880E-D92A2D8D2AE9}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
@@ -1674,12 +1671,12 @@
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="E2" t="s">
         <v>115</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="E3" t="s">
         <v>114</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="E4" t="s">
         <v>106</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="C6" s="3" t="s">
         <v>164</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15">
       <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15">
       <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1824,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15">
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15">
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15">
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15">
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +1969,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" ht="15">
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" ht="15">
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" ht="15">
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2088,7 +2085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" ht="15">
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2117,7 +2114,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" ht="15">
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2145,7 +2142,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" ht="15">
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2175,7 +2172,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" ht="15">
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
@@ -2203,7 +2200,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" ht="15">
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2233,7 +2230,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" ht="15">
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2261,7 +2258,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" ht="15">
       <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2291,7 +2288,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" ht="15">
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2321,7 +2318,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" ht="15">
       <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2348,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" ht="15">
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
@@ -2381,7 +2378,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" ht="15">
       <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2411,7 +2408,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" ht="15">
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2441,7 +2438,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" ht="15">
       <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
@@ -2471,7 +2468,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" ht="15">
       <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2501,7 +2498,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" ht="15">
       <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" ht="15">
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" ht="15">
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
@@ -2567,7 +2564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" ht="15">
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" ht="15">
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" ht="15">
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2633,7 +2630,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" ht="15">
       <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
@@ -2653,7 +2650,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" ht="15">
       <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" ht="15">
       <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" ht="15">
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2716,7 +2713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" ht="15">
       <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" ht="15">
       <c r="C45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2759,7 +2756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" ht="15">
       <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" ht="15">
       <c r="C47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" ht="15">
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
@@ -2828,7 +2825,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" ht="15">
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" ht="15">
       <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" ht="15">
       <c r="C51" s="1" t="s">
         <v>100</v>
       </c>
@@ -2897,7 +2894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" ht="15">
       <c r="C53" s="1" t="s">
         <v>169</v>
       </c>
@@ -2908,7 +2905,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" ht="15">
       <c r="C54" s="1" t="s">
         <v>170</v>
       </c>
@@ -2919,7 +2916,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" ht="14.25">
       <c r="C55" s="4" t="s">
         <v>171</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" ht="15">
       <c r="C56" s="5" t="s">
         <v>172</v>
       </c>
@@ -2954,14 +2951,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:D107"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
@@ -2978,7 +2974,7 @@
     <col min="15" max="15" width="125.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="6" t="s">
         <v>174</v>
       </c>
@@ -3025,7 +3021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="8">
         <v>45982</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="8">
         <v>45982</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="8">
         <v>45982</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="8">
         <v>45982</v>
       </c>
@@ -3213,7 +3209,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="8">
         <v>45982</v>
       </c>
@@ -3260,7 +3256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="8">
         <v>45982</v>
       </c>
@@ -3282,7 +3278,9 @@
       <c r="G7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>259</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="8">
         <v>45982</v>
       </c>
@@ -3352,7 +3350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="8">
         <v>45982</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="8">
         <v>45982</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="8">
         <v>45982</v>
       </c>
@@ -3493,7 +3491,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="8">
         <v>45982</v>
       </c>
@@ -3540,7 +3538,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="8">
         <v>45982</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="8">
         <v>45982</v>
       </c>
@@ -3634,7 +3632,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="8">
         <v>45982</v>
       </c>
@@ -3681,7 +3679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" s="8">
         <v>45982</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15">
       <c r="A17" s="8">
         <v>45982</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="8">
         <v>45982</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="8">
         <v>45982</v>
       </c>
@@ -3869,7 +3867,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="8">
         <v>45982</v>
       </c>
@@ -3916,7 +3914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="8">
         <v>45982</v>
       </c>
@@ -3963,7 +3961,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15">
       <c r="A22" s="8">
         <v>45982</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="8">
         <v>45982</v>
       </c>
@@ -4057,7 +4055,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="8">
         <v>45982</v>
       </c>
@@ -4080,7 +4078,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>49</v>
@@ -4104,7 +4102,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15">
       <c r="A25" s="8">
         <v>45982</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15">
       <c r="A26" s="8">
         <v>45982</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15">
       <c r="A27" s="8">
         <v>45982</v>
       </c>
@@ -4245,7 +4243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28" s="8">
         <v>45982</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15">
       <c r="A29" s="8">
         <v>45982</v>
       </c>
@@ -4339,7 +4337,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15">
       <c r="A30" s="14">
         <v>45982</v>
       </c>
@@ -4362,7 +4360,7 @@
         <v>54</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>341</v>
@@ -4386,7 +4384,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15">
       <c r="A31" s="8">
         <v>45982</v>
       </c>
@@ -4433,7 +4431,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15">
       <c r="A32" s="14">
         <v>45982</v>
       </c>
@@ -4480,7 +4478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15">
       <c r="A33" s="8">
         <v>45982</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" s="8">
         <v>45982</v>
       </c>
@@ -4574,7 +4572,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15">
       <c r="A35" s="14">
         <v>45982</v>
       </c>
@@ -4621,7 +4619,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" s="8">
         <v>45982</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15">
       <c r="A37" s="8">
         <v>45982</v>
       </c>
@@ -4715,7 +4713,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="8">
         <v>45982</v>
       </c>
@@ -4762,7 +4760,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15">
       <c r="A39" s="8">
         <v>45982</v>
       </c>
@@ -4785,7 +4783,7 @@
         <v>41</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>43</v>
@@ -4809,7 +4807,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15">
       <c r="A40" s="8">
         <v>45982</v>
       </c>
@@ -4856,7 +4854,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15">
       <c r="A41" s="8">
         <v>45982</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>311</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>312</v>
@@ -4903,7 +4901,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15">
       <c r="A42" s="8">
         <v>45982</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="15">
       <c r="A43" s="8">
         <v>45982</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" s="8">
         <v>45982</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="15">
       <c r="A45" s="8">
         <v>45982</v>
       </c>
@@ -5091,7 +5089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="15">
       <c r="A46" s="8">
         <v>45982</v>
       </c>
@@ -5138,7 +5136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="15">
       <c r="A47" s="8">
         <v>45982</v>
       </c>
@@ -5185,7 +5183,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="15">
       <c r="A48" s="14">
         <v>45982</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>342</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>343</v>
@@ -5232,7 +5230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15">
       <c r="A49" s="8">
         <v>45982</v>
       </c>
@@ -5279,7 +5277,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="15">
       <c r="A50" s="8">
         <v>45982</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="15">
       <c r="A51" s="8">
         <v>45982</v>
       </c>
@@ -5373,7 +5371,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15">
       <c r="A52" s="8">
         <v>45982</v>
       </c>
@@ -5420,7 +5418,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="15">
       <c r="A53" s="8">
         <v>45982</v>
       </c>
@@ -5467,7 +5465,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="15">
       <c r="A54" s="8">
         <v>45982</v>
       </c>
@@ -5514,7 +5512,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="15">
       <c r="A55" s="8">
         <v>45982</v>
       </c>
@@ -5561,7 +5559,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="15">
       <c r="A56" s="8">
         <v>45982</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="15">
       <c r="A57" s="14">
         <v>45982</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15">
       <c r="A58" s="8">
         <v>45982</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="15">
       <c r="A59" s="8">
         <v>45982</v>
       </c>
@@ -5749,7 +5747,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="15">
       <c r="A60" s="14">
         <v>45982</v>
       </c>
@@ -5796,7 +5794,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="15">
       <c r="A61" s="8">
         <v>45982</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="15">
       <c r="A62" s="8">
         <v>45982</v>
       </c>
@@ -5890,7 +5888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15">
       <c r="A63" s="8">
         <v>45982</v>
       </c>
@@ -5937,7 +5935,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="15">
       <c r="A64" s="14">
         <v>45982</v>
       </c>
@@ -5984,7 +5982,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="15">
       <c r="A65" s="14">
         <v>45982</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="15">
       <c r="A66" s="8">
         <v>45982</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="15">
       <c r="A67" s="8">
         <v>45982</v>
       </c>
@@ -6125,7 +6123,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="15">
       <c r="A68" s="8">
         <v>45982</v>
       </c>
@@ -6172,7 +6170,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="15">
       <c r="A69" s="8">
         <v>45982</v>
       </c>
@@ -6219,7 +6217,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="15">
       <c r="A70" s="14">
         <v>45982</v>
       </c>
@@ -6266,7 +6264,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="15">
       <c r="A71" s="14">
         <v>45982</v>
       </c>
@@ -6313,7 +6311,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="15">
       <c r="A72" s="8">
         <v>45982</v>
       </c>
@@ -6360,7 +6358,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="15">
       <c r="A73" s="8">
         <v>45982</v>
       </c>
@@ -6383,7 +6381,7 @@
         <v>170</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>280</v>
@@ -6407,7 +6405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="15">
       <c r="A74" s="8">
         <v>45982</v>
       </c>
@@ -6454,7 +6452,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="15">
       <c r="A75" s="8">
         <v>45982</v>
       </c>
@@ -6477,7 +6475,7 @@
         <v>288</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>289</v>
@@ -6501,7 +6499,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="15">
       <c r="A76" s="8">
         <v>45982</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="15">
       <c r="A77" s="8">
         <v>45982</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="15">
       <c r="A78" s="8">
         <v>45982</v>
       </c>
@@ -6642,7 +6640,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="15">
       <c r="A79" s="8">
         <v>45982</v>
       </c>
@@ -6689,7 +6687,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="15">
       <c r="A80" s="8">
         <v>45982</v>
       </c>
@@ -6736,7 +6734,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="15">
       <c r="A81" s="8">
         <v>45982</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="15">
       <c r="A82" s="8">
         <v>45982</v>
       </c>
@@ -6830,7 +6828,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="15">
       <c r="A83" s="8">
         <v>45982</v>
       </c>
@@ -6877,7 +6875,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="15">
       <c r="A84" s="8">
         <v>45982</v>
       </c>
@@ -6924,7 +6922,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="15">
       <c r="A85" s="8">
         <v>45982</v>
       </c>
@@ -6971,7 +6969,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="15">
       <c r="A86" s="8">
         <v>45982</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="15">
       <c r="A87" s="8">
         <v>45982</v>
       </c>
@@ -7065,7 +7063,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15">
       <c r="A88" s="8">
         <v>45982</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="15">
       <c r="A89" s="8">
         <v>45982</v>
       </c>
@@ -7159,7 +7157,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="15">
       <c r="A90" s="8">
         <v>45982</v>
       </c>
@@ -7206,7 +7204,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="15">
       <c r="A91" s="8">
         <v>45982</v>
       </c>
@@ -7253,7 +7251,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="15">
       <c r="A92" s="8">
         <v>45982</v>
       </c>
@@ -7300,7 +7298,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="15">
       <c r="A93" s="8">
         <v>45982</v>
       </c>
@@ -7347,7 +7345,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="15">
       <c r="A94" s="8">
         <v>45982</v>
       </c>
@@ -7394,7 +7392,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15">
       <c r="A95" s="8">
         <v>45982</v>
       </c>
@@ -7441,7 +7439,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15">
       <c r="A96" s="8">
         <v>45982</v>
       </c>
@@ -7488,7 +7486,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="15">
       <c r="A97" s="8">
         <v>45982</v>
       </c>
@@ -7535,35 +7533,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
+      <c r="G99">
+        <f>96+42</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="15">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="15">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="15">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="15">
       <c r="D105" s="1"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="I78" name="Database_1"/>
   </protectedRanges>
-  <autoFilter ref="A1:O97" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="Fix Stellantis bug"/>
-        <filter val="Macro"/>
-        <filter val="Macro + Capping? + NACE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A1:O1 O2:O97 A2:I97">
+  <conditionalFormatting sqref="A1:O1 A2:I97 O2:O97">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$A1=TODAY()</formula>
     </cfRule>
@@ -7615,7 +7610,7 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F862B6-3EB5-4FBE-B085-622BD97287CA}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D199C5-7585-4C47-94B3-7680EE0B42C2}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$O$97</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="347">
   <si>
     <t>EEUS</t>
   </si>
@@ -1082,9 +1082,6 @@
   </si>
   <si>
     <t>Macro</t>
-  </si>
-  <si>
-    <t>Macro + Capping? + NACE</t>
   </si>
 </sst>
 </file>
@@ -2953,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6475,7 +6472,7 @@
         <v>288</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>289</v>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D199C5-7585-4C47-94B3-7680EE0B42C2}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71CB97C-F006-48AE-9202-10882985AF7F}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCAEDFB"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2934,7 +2942,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A55=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2950,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7556,42 +7564,42 @@
     <protectedRange sqref="I78" name="Database_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="A1:O1 A2:I97 O2:O97">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J70">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:L71">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A71=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:N97">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A72=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:L70">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N26">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:N71">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71CB97C-F006-48AE-9202-10882985AF7F}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53787410-45B7-44FF-B485-E1021FC512F3}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,9 +586,6 @@
     <t>Mnemo(s)</t>
   </si>
   <si>
-    <t>Name Group</t>
-  </si>
-  <si>
     <t>Data Provider</t>
   </si>
   <si>
@@ -1082,6 +1079,9 @@
   </si>
   <si>
     <t>Macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2956,10 +2956,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3002,36 +3003,36 @@
         <v>180</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
+    </row>
+    <row r="2" spans="1:15" ht="15" hidden="1">
       <c r="A2" s="8">
         <v>45982</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8">
         <v>46008</v>
@@ -3049,36 +3050,36 @@
         <v>82</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>237</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" hidden="1">
       <c r="A3" s="8">
         <v>45982</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8">
         <v>46008</v>
@@ -3096,36 +3097,36 @@
         <v>81</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15">
+    </row>
+    <row r="4" spans="1:15" ht="15" hidden="1">
       <c r="A4" s="8">
         <v>45982</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="8">
         <v>46007</v>
@@ -3140,39 +3141,39 @@
         <v>46013</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="J4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" hidden="1">
       <c r="A5" s="8">
         <v>45982</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8">
         <v>46007</v>
@@ -3187,39 +3188,39 @@
         <v>46013</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" hidden="1">
       <c r="A6" s="8">
         <v>45982</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="8">
         <v>46007</v>
@@ -3234,39 +3235,39 @@
         <v>46013</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="J6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" hidden="1">
       <c r="A7" s="8">
         <v>45982</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="8">
         <v>46007</v>
@@ -3284,31 +3285,31 @@
         <v>171</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15">
+    </row>
+    <row r="8" spans="1:15" ht="15" hidden="1">
       <c r="A8" s="8">
         <v>45982</v>
       </c>
@@ -3328,34 +3329,34 @@
         <v>46013</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="J8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" hidden="1">
       <c r="A9" s="8">
         <v>45982</v>
       </c>
@@ -3375,39 +3376,39 @@
         <v>46013</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" hidden="1">
       <c r="A10" s="8">
         <v>45982</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="8">
         <v>46007</v>
@@ -3422,13 +3423,13 @@
         <v>46013</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>112</v>
@@ -3437,19 +3438,19 @@
         <v>115</v>
       </c>
       <c r="L10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15">
+    </row>
+    <row r="11" spans="1:15" ht="15" hidden="1">
       <c r="A11" s="8">
         <v>45982</v>
       </c>
@@ -3469,34 +3470,34 @@
         <v>46013</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" hidden="1">
       <c r="A12" s="8">
         <v>45982</v>
       </c>
@@ -3516,34 +3517,34 @@
         <v>46013</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" hidden="1">
       <c r="A13" s="8">
         <v>45982</v>
       </c>
@@ -3563,34 +3564,34 @@
         <v>46013</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="J13" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" hidden="1">
       <c r="A14" s="8">
         <v>45982</v>
       </c>
@@ -3610,34 +3611,34 @@
         <v>46013</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="J14" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" hidden="1">
       <c r="A15" s="8">
         <v>45982</v>
       </c>
@@ -3660,31 +3661,31 @@
         <v>102</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" hidden="1">
       <c r="A16" s="8">
         <v>45982</v>
       </c>
@@ -3707,31 +3708,31 @@
         <v>119</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" hidden="1">
       <c r="A17" s="8">
         <v>45982</v>
       </c>
@@ -3751,34 +3752,34 @@
         <v>46013</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="J17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" hidden="1">
       <c r="A18" s="8">
         <v>45982</v>
       </c>
@@ -3801,31 +3802,31 @@
         <v>120</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" hidden="1">
       <c r="A19" s="8">
         <v>45982</v>
       </c>
@@ -3845,34 +3846,34 @@
         <v>46013</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="J19" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" hidden="1">
       <c r="A20" s="8">
         <v>45982</v>
       </c>
@@ -3892,34 +3893,34 @@
         <v>46013</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="J20" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" hidden="1">
       <c r="A21" s="8">
         <v>45982</v>
       </c>
@@ -3939,34 +3940,34 @@
         <v>46013</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="J21" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" hidden="1">
       <c r="A22" s="8">
         <v>45982</v>
       </c>
@@ -3986,39 +3987,39 @@
         <v>46013</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="J22" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" hidden="1">
       <c r="A23" s="8">
         <v>45982</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="8">
         <v>46007</v>
@@ -4033,39 +4034,39 @@
         <v>46013</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="J23" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" hidden="1">
       <c r="A24" s="8">
         <v>45982</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="8">
         <v>46007</v>
@@ -4083,31 +4084,31 @@
         <v>47</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" hidden="1">
       <c r="A25" s="8">
         <v>45982</v>
       </c>
@@ -4127,34 +4128,34 @@
         <v>46013</v>
       </c>
       <c r="G25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="J25" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" hidden="1">
       <c r="A26" s="8">
         <v>45982</v>
       </c>
@@ -4174,39 +4175,39 @@
         <v>46013</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="J26" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" hidden="1">
       <c r="A27" s="8">
         <v>45982</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="8">
         <v>46007</v>
@@ -4221,34 +4222,34 @@
         <v>46013</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>318</v>
-      </c>
       <c r="J27" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" hidden="1">
       <c r="A28" s="8">
         <v>45982</v>
       </c>
@@ -4271,31 +4272,31 @@
         <v>104</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" hidden="1">
       <c r="A29" s="8">
         <v>45982</v>
       </c>
@@ -4318,28 +4319,28 @@
         <v>122</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15">
@@ -4347,7 +4348,7 @@
         <v>45982</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="14">
         <v>46007</v>
@@ -4365,36 +4366,36 @@
         <v>54</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" hidden="1">
       <c r="A31" s="8">
         <v>45982</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="8">
         <v>46007</v>
@@ -4409,31 +4410,31 @@
         <v>46013</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="J31" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15">
@@ -4441,7 +4442,7 @@
         <v>45982</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="14">
         <v>46007</v>
@@ -4459,36 +4460,36 @@
         <v>57</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" hidden="1">
       <c r="A33" s="8">
         <v>45982</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="8">
         <v>46007</v>
@@ -4503,39 +4504,39 @@
         <v>46013</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="J33" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" hidden="1">
       <c r="A34" s="8">
         <v>45982</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="8">
         <v>46007</v>
@@ -4550,31 +4551,31 @@
         <v>46013</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="J34" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15">
@@ -4582,7 +4583,7 @@
         <v>45982</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="14">
         <v>46007</v>
@@ -4600,36 +4601,36 @@
         <v>60</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>62</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" hidden="1">
       <c r="A36" s="8">
         <v>45982</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="8">
         <v>46007</v>
@@ -4644,39 +4645,39 @@
         <v>46013</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" hidden="1">
       <c r="A37" s="8">
         <v>45982</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" s="8">
         <v>46008</v>
@@ -4691,39 +4692,39 @@
         <v>46013</v>
       </c>
       <c r="G37" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="J37" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" hidden="1">
       <c r="A38" s="8">
         <v>45982</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="8">
         <v>46007</v>
@@ -4738,39 +4739,39 @@
         <v>46013</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15">
+    </row>
+    <row r="39" spans="1:15" ht="15" hidden="1">
       <c r="A39" s="8">
         <v>45982</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" s="8">
         <v>46007</v>
@@ -4788,36 +4789,36 @@
         <v>41</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" hidden="1">
       <c r="A40" s="8">
         <v>45982</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" s="8">
         <v>46007</v>
@@ -4835,36 +4836,36 @@
         <v>169</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I40" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="K40" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" hidden="1">
       <c r="A41" s="8">
         <v>45982</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="8">
         <v>46007</v>
@@ -4879,34 +4880,34 @@
         <v>46013</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="J41" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" hidden="1">
       <c r="A42" s="8">
         <v>45982</v>
       </c>
@@ -4926,34 +4927,34 @@
         <v>46013</v>
       </c>
       <c r="G42" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="J42" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" hidden="1">
       <c r="A43" s="8">
         <v>45982</v>
       </c>
@@ -4973,39 +4974,39 @@
         <v>46013</v>
       </c>
       <c r="G43" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="J43" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" hidden="1">
       <c r="A44" s="8">
         <v>45982</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="8">
         <v>46007</v>
@@ -5020,39 +5021,39 @@
         <v>46013</v>
       </c>
       <c r="G44" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>336</v>
-      </c>
       <c r="J44" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" hidden="1">
       <c r="A45" s="8">
         <v>45982</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" s="8">
         <v>46007</v>
@@ -5067,39 +5068,39 @@
         <v>46013</v>
       </c>
       <c r="G45" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="J45" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" hidden="1">
       <c r="A46" s="8">
         <v>45982</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C46" s="8">
         <v>46007</v>
@@ -5117,36 +5118,36 @@
         <v>51</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" hidden="1">
       <c r="A47" s="8">
         <v>45982</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="8">
         <v>46007</v>
@@ -5161,31 +5162,31 @@
         <v>46013</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="J47" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15">
@@ -5193,7 +5194,7 @@
         <v>45982</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="14">
         <v>46007</v>
@@ -5208,39 +5209,39 @@
         <v>46013</v>
       </c>
       <c r="G48" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>343</v>
-      </c>
       <c r="J48" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" hidden="1">
       <c r="A49" s="8">
         <v>45982</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C49" s="8">
         <v>46007</v>
@@ -5255,39 +5256,39 @@
         <v>46013</v>
       </c>
       <c r="G49" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>267</v>
-      </c>
       <c r="J49" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" hidden="1">
       <c r="A50" s="8">
         <v>45982</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" s="8">
         <v>46007</v>
@@ -5305,36 +5306,36 @@
         <v>44</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" hidden="1">
       <c r="A51" s="8">
         <v>45982</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="8">
         <v>46007</v>
@@ -5349,39 +5350,39 @@
         <v>46013</v>
       </c>
       <c r="G51" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>302</v>
-      </c>
       <c r="J51" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" hidden="1">
       <c r="A52" s="8">
         <v>45982</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" s="8">
         <v>46007</v>
@@ -5396,39 +5397,39 @@
         <v>46013</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="J52" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" hidden="1">
       <c r="A53" s="8">
         <v>45982</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C53" s="8">
         <v>46007</v>
@@ -5443,39 +5444,39 @@
         <v>46013</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="J53" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" hidden="1">
       <c r="A54" s="8">
         <v>45982</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" s="8">
         <v>46007</v>
@@ -5490,34 +5491,34 @@
         <v>46013</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="J54" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" hidden="1">
       <c r="A55" s="8">
         <v>45982</v>
       </c>
@@ -5537,34 +5538,34 @@
         <v>46013</v>
       </c>
       <c r="G55" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="J55" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" hidden="1">
       <c r="A56" s="8">
         <v>45982</v>
       </c>
@@ -5584,31 +5585,31 @@
         <v>46013</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="J56" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15">
@@ -5616,7 +5617,7 @@
         <v>45982</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57" s="14">
         <v>46007</v>
@@ -5634,36 +5635,36 @@
         <v>69</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>71</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" hidden="1">
       <c r="A58" s="8">
         <v>45982</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" s="8">
         <v>46007</v>
@@ -5681,36 +5682,36 @@
         <v>21</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" hidden="1">
       <c r="A59" s="8">
         <v>45982</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" s="8">
         <v>46007</v>
@@ -5725,31 +5726,31 @@
         <v>46013</v>
       </c>
       <c r="G59" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O59" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15">
@@ -5757,7 +5758,7 @@
         <v>45982</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" s="14">
         <v>46007</v>
@@ -5775,31 +5776,31 @@
         <v>72</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" hidden="1">
       <c r="A61" s="8">
         <v>45982</v>
       </c>
@@ -5822,31 +5823,31 @@
         <v>103</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" hidden="1">
       <c r="A62" s="8">
         <v>45982</v>
       </c>
@@ -5869,36 +5870,36 @@
         <v>121</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" hidden="1">
       <c r="A63" s="8">
         <v>45982</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C63" s="8">
         <v>46007</v>
@@ -5913,31 +5914,31 @@
         <v>46013</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15">
@@ -5945,7 +5946,7 @@
         <v>45982</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="14">
         <v>46007</v>
@@ -5963,28 +5964,28 @@
         <v>75</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15">
@@ -5992,7 +5993,7 @@
         <v>45982</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="14">
         <v>46007</v>
@@ -6010,36 +6011,36 @@
         <v>78</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15" hidden="1">
       <c r="A66" s="8">
         <v>45982</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" s="8">
         <v>46007</v>
@@ -6054,39 +6055,39 @@
         <v>46013</v>
       </c>
       <c r="G66" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="J66" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15" hidden="1">
       <c r="A67" s="8">
         <v>45982</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C67" s="8">
         <v>46007</v>
@@ -6101,39 +6102,39 @@
         <v>46013</v>
       </c>
       <c r="G67" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I67" s="9" t="s">
+      <c r="J67" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O67" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15">
+    </row>
+    <row r="68" spans="1:15" ht="15" hidden="1">
       <c r="A68" s="8">
         <v>45982</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="8">
         <v>46007</v>
@@ -6148,39 +6149,39 @@
         <v>46013</v>
       </c>
       <c r="G68" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>322</v>
-      </c>
       <c r="J68" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15" hidden="1">
       <c r="A69" s="8">
         <v>45982</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" s="8">
         <v>46007</v>
@@ -6198,7 +6199,7 @@
         <v>94</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>136</v>
@@ -6210,16 +6211,16 @@
         <v>115</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15">
@@ -6227,7 +6228,7 @@
         <v>45982</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C70" s="14">
         <v>46007</v>
@@ -6245,28 +6246,28 @@
         <v>63</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I70" s="15" t="s">
         <v>65</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15">
@@ -6274,7 +6275,7 @@
         <v>45982</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C71" s="14">
         <v>46007</v>
@@ -6292,36 +6293,36 @@
         <v>66</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>68</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15" hidden="1">
       <c r="A72" s="8">
         <v>45982</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" s="8">
         <v>46007</v>
@@ -6336,39 +6337,39 @@
         <v>46013</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="J72" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" hidden="1">
       <c r="A73" s="8">
         <v>45982</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" s="8">
         <v>46007</v>
@@ -6386,10 +6387,10 @@
         <v>170</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>112</v>
@@ -6398,24 +6399,24 @@
         <v>115</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15" hidden="1">
       <c r="A74" s="8">
         <v>45982</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C74" s="8">
         <v>46007</v>
@@ -6430,39 +6431,39 @@
         <v>46013</v>
       </c>
       <c r="G74" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="J74" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O74" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="J74" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L74" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15">
+    </row>
+    <row r="75" spans="1:15" ht="15" hidden="1">
       <c r="A75" s="8">
         <v>45982</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C75" s="8">
         <v>46007</v>
@@ -6477,39 +6478,39 @@
         <v>46013</v>
       </c>
       <c r="G75" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I75" s="9" t="s">
+      <c r="J75" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="J75" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="K75" s="12" t="s">
         <v>115</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" hidden="1">
       <c r="A76" s="8">
         <v>45982</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76" s="8">
         <v>46007</v>
@@ -6524,133 +6525,133 @@
         <v>46013</v>
       </c>
       <c r="G76" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15" hidden="1">
+      <c r="A77" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D77" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E77" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F77" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15" hidden="1">
+      <c r="A78" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D78" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E78" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F78" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="J76" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15">
-      <c r="A77" s="8">
-        <v>45982</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="8">
-        <v>46007</v>
-      </c>
-      <c r="D77" s="8">
-        <v>46008</v>
-      </c>
-      <c r="E77" s="8">
-        <v>46010</v>
-      </c>
-      <c r="F77" s="8">
-        <v>46013</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15">
-      <c r="A78" s="8">
-        <v>45982</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="8">
-        <v>46007</v>
-      </c>
-      <c r="D78" s="8">
-        <v>46008</v>
-      </c>
-      <c r="E78" s="8">
-        <v>46010</v>
-      </c>
-      <c r="F78" s="8">
-        <v>46013</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15">
+    </row>
+    <row r="79" spans="1:15" ht="15" hidden="1">
       <c r="A79" s="8">
         <v>45982</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" s="8">
         <v>46007</v>
@@ -6665,39 +6666,39 @@
         <v>46013</v>
       </c>
       <c r="G79" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="J79" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N79" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15" hidden="1">
       <c r="A80" s="8">
         <v>45982</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C80" s="8">
         <v>46007</v>
@@ -6715,7 +6716,7 @@
         <v>85</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>127</v>
@@ -6727,24 +6728,24 @@
         <v>115</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" hidden="1">
       <c r="A81" s="8">
         <v>45982</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C81" s="8">
         <v>46007</v>
@@ -6759,86 +6760,86 @@
         <v>46013</v>
       </c>
       <c r="G81" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15" hidden="1">
+      <c r="A82" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="8">
+        <v>46007</v>
+      </c>
+      <c r="D82" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E82" s="8">
+        <v>46010</v>
+      </c>
+      <c r="F82" s="8">
+        <v>46013</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M81" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N81" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="15">
-      <c r="A82" s="8">
-        <v>45982</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="8">
-        <v>46007</v>
-      </c>
-      <c r="D82" s="8">
-        <v>46008</v>
-      </c>
-      <c r="E82" s="8">
-        <v>46010</v>
-      </c>
-      <c r="F82" s="8">
-        <v>46013</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="J82" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K82" s="16" t="s">
         <v>115</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15" hidden="1">
       <c r="A83" s="8">
         <v>45982</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C83" s="8">
         <v>46007</v>
@@ -6856,7 +6857,7 @@
         <v>98</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>140</v>
@@ -6868,24 +6869,24 @@
         <v>115</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15" hidden="1">
       <c r="A84" s="8">
         <v>45982</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="8">
         <v>46007</v>
@@ -6903,7 +6904,7 @@
         <v>97</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>139</v>
@@ -6915,24 +6916,24 @@
         <v>115</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15" hidden="1">
       <c r="A85" s="8">
         <v>45982</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C85" s="8">
         <v>46007</v>
@@ -6950,36 +6951,36 @@
         <v>172</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15" hidden="1">
       <c r="A86" s="8">
         <v>45982</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C86" s="8">
         <v>46007</v>
@@ -6994,39 +6995,39 @@
         <v>46013</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="J86" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K86" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15" hidden="1">
       <c r="A87" s="8">
         <v>45982</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87" s="8">
         <v>46007</v>
@@ -7044,7 +7045,7 @@
         <v>84</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>126</v>
@@ -7056,24 +7057,24 @@
         <v>115</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15" hidden="1">
       <c r="A88" s="8">
         <v>45982</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88" s="8">
         <v>46007</v>
@@ -7088,39 +7089,39 @@
         <v>46013</v>
       </c>
       <c r="G88" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="J88" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K88" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15" hidden="1">
       <c r="A89" s="8">
         <v>45982</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C89" s="8">
         <v>46007</v>
@@ -7135,39 +7136,39 @@
         <v>46013</v>
       </c>
       <c r="G89" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="J89" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>115</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N89" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15" hidden="1">
       <c r="A90" s="8">
         <v>45982</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C90" s="8">
         <v>46007</v>
@@ -7185,7 +7186,7 @@
         <v>99</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>141</v>
@@ -7197,24 +7198,24 @@
         <v>115</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15" hidden="1">
       <c r="A91" s="8">
         <v>45982</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="8">
         <v>46007</v>
@@ -7229,39 +7230,39 @@
         <v>46013</v>
       </c>
       <c r="G91" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H91" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="J91" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>115</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15" hidden="1">
       <c r="A92" s="8">
         <v>45982</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" s="8">
         <v>46007</v>
@@ -7279,7 +7280,7 @@
         <v>100</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>142</v>
@@ -7291,24 +7292,24 @@
         <v>115</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" hidden="1">
       <c r="A93" s="8">
         <v>45982</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" s="8">
         <v>46007</v>
@@ -7326,10 +7327,10 @@
         <v>96</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>112</v>
@@ -7338,24 +7339,24 @@
         <v>115</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" hidden="1">
       <c r="A94" s="8">
         <v>45982</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" s="8">
         <v>46007</v>
@@ -7373,7 +7374,7 @@
         <v>95</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>137</v>
@@ -7385,24 +7386,24 @@
         <v>115</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" hidden="1">
       <c r="A95" s="8">
         <v>45982</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" s="8">
         <v>46007</v>
@@ -7417,39 +7418,39 @@
         <v>46013</v>
       </c>
       <c r="G95" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="J95" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N95" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" hidden="1">
       <c r="A96" s="8">
         <v>45982</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C96" s="8">
         <v>46007</v>
@@ -7467,7 +7468,7 @@
         <v>86</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>128</v>
@@ -7479,24 +7480,24 @@
         <v>115</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" hidden="1">
       <c r="A97" s="8">
         <v>45982</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C97" s="8">
         <v>46007</v>
@@ -7511,31 +7512,31 @@
         <v>46013</v>
       </c>
       <c r="G97" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I97" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I97" s="9" t="s">
+      <c r="J97" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="J97" s="9" t="s">
-        <v>283</v>
-      </c>
       <c r="K97" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -7563,6 +7564,11 @@
   <protectedRanges>
     <protectedRange sqref="I78" name="Database_1"/>
   </protectedRanges>
+  <autoFilter ref="A1:O97" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
+    <filterColumn colId="8">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A1:O1 A2:I97 O2:O97">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>$A1=TODAY()</formula>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB32CA11-16F5-4A9D-B96A-21A34DCCD8E1}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AAC1C4-11F9-4F42-9CC9-091FAC378D31}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
   <sheets>
     <sheet name="202512" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="OLD" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'202512'!$A$8:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'202512'!$A$8:$O$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="483">
   <si>
     <t>EEUS</t>
   </si>
@@ -1403,6 +1403,93 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Review Done</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>EZ3R</t>
+  </si>
+  <si>
+    <t>EBMFP</t>
+  </si>
+  <si>
+    <t>EZ20P</t>
+  </si>
+  <si>
+    <t>EZGP</t>
+  </si>
+  <si>
+    <t>Test With 3 new datapoints and still to be matched</t>
+  </si>
+  <si>
+    <t>IEBMP</t>
+  </si>
+  <si>
+    <t>IECDP</t>
+  </si>
+  <si>
+    <t>IECSP</t>
+  </si>
+  <si>
+    <t>IEENP</t>
+  </si>
+  <si>
+    <t>IEFIP</t>
+  </si>
+  <si>
+    <t>IEHCP</t>
+  </si>
+  <si>
+    <t>IEINP</t>
+  </si>
+  <si>
+    <t>IEREP</t>
+  </si>
+  <si>
+    <t>IEUTP</t>
+  </si>
+  <si>
+    <t>IETLP</t>
+  </si>
+  <si>
+    <t>IETCP</t>
+  </si>
+  <si>
+    <t>IWBMP</t>
+  </si>
+  <si>
+    <t>IWCDP</t>
+  </si>
+  <si>
+    <t>IWCSP</t>
+  </si>
+  <si>
+    <t>IWENP</t>
+  </si>
+  <si>
+    <t>IWFIP</t>
+  </si>
+  <si>
+    <t>IWHCP</t>
+  </si>
+  <si>
+    <t>IWREP</t>
+  </si>
+  <si>
+    <t>IWTCP</t>
+  </si>
+  <si>
+    <t>IWTLP</t>
+  </si>
+  <si>
+    <t>IWUTP</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1662,134 +1749,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2218,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2231,16 +2347,16 @@
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="53.125" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="125.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="125.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="25" t="s">
         <v>116</v>
       </c>
@@ -2248,7 +2364,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="B2" s="21" t="s">
         <v>115</v>
       </c>
@@ -2257,7 +2373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="B3" s="21" t="s">
         <v>114</v>
       </c>
@@ -2266,7 +2382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="B4" s="23" t="s">
         <v>106</v>
       </c>
@@ -2275,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="6" t="s">
         <v>174</v>
       </c>
@@ -2295,31 +2411,34 @@
         <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15">
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="8">
         <v>45982</v>
       </c>
@@ -2338,32 +2457,33 @@
       <c r="F9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="8">
         <v>45982</v>
       </c>
@@ -2382,32 +2502,33 @@
       <c r="F10" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>3</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="8">
         <v>45982</v>
       </c>
@@ -2426,32 +2547,33 @@
       <c r="F11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="8">
         <v>45982</v>
       </c>
@@ -2470,32 +2592,33 @@
       <c r="F12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M12" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="8">
         <v>45982</v>
       </c>
@@ -2514,32 +2637,33 @@
       <c r="F13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
         <v>3</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M13" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="8">
         <v>45982</v>
       </c>
@@ -2558,32 +2682,33 @@
       <c r="F14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>3</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="8">
         <v>45982</v>
       </c>
@@ -2602,32 +2727,33 @@
       <c r="F15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M15" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" s="8">
         <v>45982</v>
       </c>
@@ -2646,32 +2772,33 @@
       <c r="F16" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M16" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15">
       <c r="A17" s="14">
         <v>45982</v>
       </c>
@@ -2690,32 +2817,33 @@
       <c r="F17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M17" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="14">
         <v>45982</v>
       </c>
@@ -2734,32 +2862,33 @@
       <c r="F18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M18" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="8">
         <v>46024</v>
       </c>
@@ -2776,30 +2905,31 @@
       <c r="F19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M19" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="8">
         <v>46024</v>
       </c>
@@ -2816,30 +2946,31 @@
       <c r="F20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M20" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="8">
         <v>46024</v>
       </c>
@@ -2856,30 +2987,31 @@
       <c r="F21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M21" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="15">
       <c r="A22" s="8">
         <v>46024</v>
       </c>
@@ -2896,30 +3028,31 @@
       <c r="F22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M22" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="8">
         <v>46024</v>
       </c>
@@ -2936,30 +3069,31 @@
       <c r="F23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M23" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="8">
         <v>45982</v>
       </c>
@@ -2979,29 +3113,30 @@
         <v>115</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M24" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:15" ht="15">
       <c r="A25" s="8">
         <v>45982</v>
       </c>
@@ -3020,30 +3155,33 @@
       <c r="F25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M25" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15">
       <c r="A26" s="8">
         <v>45982</v>
       </c>
@@ -3062,30 +3200,33 @@
       <c r="F26" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:15" ht="15">
       <c r="A27" s="8">
         <v>45982</v>
       </c>
@@ -3105,29 +3246,30 @@
         <v>115</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L27" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M27" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28" s="8">
         <v>45982</v>
       </c>
@@ -3147,29 +3289,30 @@
         <v>115</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="K28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M28" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:15" ht="15">
       <c r="A29" s="8">
         <v>45982</v>
       </c>
@@ -3189,29 +3332,30 @@
         <v>115</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M29" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15">
+    <row r="30" spans="1:15" ht="15">
       <c r="A30" s="8">
         <v>45982</v>
       </c>
@@ -3231,29 +3375,30 @@
         <v>115</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="K30" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="L30" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M30" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15">
+    <row r="31" spans="1:15" ht="15">
       <c r="A31" s="8">
         <v>45982</v>
       </c>
@@ -3273,29 +3418,30 @@
         <v>115</v>
       </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M31" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15">
       <c r="A32" s="8">
         <v>45982</v>
       </c>
@@ -3315,29 +3461,30 @@
         <v>115</v>
       </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M32" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15">
       <c r="A33" s="8">
         <v>45982</v>
       </c>
@@ -3356,32 +3503,33 @@
       <c r="F33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M33" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" s="8">
         <v>45982</v>
       </c>
@@ -3401,29 +3549,30 @@
         <v>115</v>
       </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M34" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15">
       <c r="A35" s="8">
         <v>45982</v>
       </c>
@@ -3443,29 +3592,30 @@
         <v>115</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="K35" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="L35" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M35" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" s="8">
         <v>45982</v>
       </c>
@@ -3485,29 +3635,30 @@
         <v>115</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="L36" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M36" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15">
       <c r="A37" s="8">
         <v>45982</v>
       </c>
@@ -3527,29 +3678,30 @@
         <v>115</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="K37" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="L37" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="M37" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="8">
         <v>45982</v>
       </c>
@@ -3569,29 +3721,30 @@
         <v>115</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="K38" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="L38" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M38" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15">
       <c r="A39" s="8">
         <v>45982</v>
       </c>
@@ -3611,29 +3764,30 @@
         <v>115</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="K39" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M39" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15">
       <c r="A40" s="8">
         <v>45982</v>
       </c>
@@ -3653,29 +3807,30 @@
         <v>115</v>
       </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="K40" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M40" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15">
       <c r="A41" s="8">
         <v>45982</v>
       </c>
@@ -3695,29 +3850,30 @@
         <v>115</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="K41" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L41" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M41" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15">
       <c r="A42" s="8">
         <v>45982</v>
       </c>
@@ -3737,29 +3893,30 @@
         <v>115</v>
       </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="L42" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M42" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15">
       <c r="A43" s="8">
         <v>45982</v>
       </c>
@@ -3779,29 +3936,30 @@
         <v>115</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="K43" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="L43" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M43" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" s="8">
         <v>45982</v>
       </c>
@@ -3821,29 +3979,30 @@
         <v>115</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="K44" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="L44" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="M44" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15">
       <c r="A45" s="8">
         <v>45982</v>
       </c>
@@ -3862,32 +4021,33 @@
       <c r="F45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="L45" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L45" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M45" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15">
       <c r="A46" s="8">
         <v>45982</v>
       </c>
@@ -3906,32 +4066,33 @@
       <c r="F46" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="L46" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L46" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M46" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15">
       <c r="A47" s="8">
         <v>45982</v>
       </c>
@@ -3950,32 +4111,33 @@
       <c r="F47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9">
         <v>1</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="L47" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M47" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N47" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O47" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15">
+    <row r="48" spans="1:15" ht="15">
       <c r="A48" s="8">
         <v>45982</v>
       </c>
@@ -3994,32 +4156,33 @@
       <c r="F48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9">
         <v>1</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="L48" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M48" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O48" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15">
+    <row r="49" spans="1:15" ht="15">
       <c r="A49" s="8">
         <v>45982</v>
       </c>
@@ -4038,32 +4201,33 @@
       <c r="F49" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9">
         <v>1</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="I49" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="L49" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L49" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="M49" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="N49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O49" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15">
+    <row r="50" spans="1:15" ht="15">
       <c r="A50" s="8">
         <v>45982</v>
       </c>
@@ -4082,32 +4246,33 @@
       <c r="F50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9">
         <v>2</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="L50" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="M50" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15">
       <c r="A51" s="8">
         <v>45982</v>
       </c>
@@ -4126,32 +4291,33 @@
       <c r="F51" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9">
         <v>2</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="L51" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M51" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15">
       <c r="A52" s="8">
         <v>45982</v>
       </c>
@@ -4170,32 +4336,33 @@
       <c r="F52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
         <v>3</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="L52" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L52" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M52" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15">
       <c r="A53" s="8">
         <v>45982</v>
       </c>
@@ -4214,32 +4381,33 @@
       <c r="F53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9">
         <v>2</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K53" s="12" t="s">
+      <c r="L53" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M53" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15">
       <c r="A54" s="8">
         <v>45982</v>
       </c>
@@ -4258,32 +4426,33 @@
       <c r="F54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <v>2</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K54" s="12" t="s">
+      <c r="L54" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M54" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15">
       <c r="A55" s="8">
         <v>45982</v>
       </c>
@@ -4302,32 +4471,33 @@
       <c r="F55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <v>2</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="L55" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L55" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M55" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15">
       <c r="A56" s="8">
         <v>45982</v>
       </c>
@@ -4346,32 +4516,33 @@
       <c r="F56" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="K56" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="L56" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M56" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15">
+        <v>188</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15">
       <c r="A57" s="8">
         <v>45982</v>
       </c>
@@ -4390,154 +4561,199 @@
       <c r="F57" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="J57" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="K57" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="L57" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="M57" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="14.25">
+        <v>188</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="14.25">
       <c r="E58" s="19" t="s">
         <v>441</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="27"/>
+      <c r="H58" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>460</v>
+      </c>
+      <c r="B65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="H33" name="Database"/>
+    <protectedRange sqref="I33" name="Database"/>
   </protectedRanges>
-  <autoFilter ref="A8:N58" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:N58">
-      <sortCondition ref="F8:F58"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="E53:E58 A8:N52">
-    <cfRule type="expression" dxfId="30" priority="38">
+  <conditionalFormatting sqref="A8:O57">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>$A8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N57 B53:B57 E53:H57 E58:F58">
-    <cfRule type="expression" dxfId="29" priority="20">
+  <conditionalFormatting sqref="E53:E58">
+    <cfRule type="expression" dxfId="33" priority="58">
       <formula>$A53=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:M53">
-    <cfRule type="expression" dxfId="28" priority="19">
-      <formula>$A53=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:M57">
-    <cfRule type="expression" dxfId="27" priority="18">
-      <formula>$A54=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="26" priority="17">
-      <formula>$A53=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="25" priority="16">
-      <formula>$A54=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>$A55=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="23" priority="14">
-      <formula>$A56=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="22" priority="13">
-      <formula>$A57=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="21" priority="12">
-      <formula>$A53=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A57">
-    <cfRule type="expression" dxfId="20" priority="11">
-      <formula>$A54=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="19" priority="10">
-      <formula>$A53=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>$A54=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="17" priority="8">
-      <formula>$A55=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>$A56=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>$A57=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>$A53=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="13" priority="4">
-      <formula>$A54=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>$A55=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>$A56=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$A57=TODAY()</formula>
+  <conditionalFormatting sqref="E58:G58">
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>$A58=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8839,48 +9055,48 @@
   <protectedRanges>
     <protectedRange sqref="H78" name="Database_1_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="N2:N97 A2:E97 G2:H97">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="A2:H97">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:N1">
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>$A1=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I70">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:K71">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$A71=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:M97">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$A72=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K70">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:M26">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M71">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:N1">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$A1=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F97">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="N2:N97">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10173,7 +10389,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A55=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AAC1C4-11F9-4F42-9CC9-091FAC378D31}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30B7C68-B8A4-42D4-ABBC-60D3E81AE3AB}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="483">
   <si>
     <t>EEUS</t>
   </si>
@@ -2334,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3245,7 +3245,9 @@
       <c r="F27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="s">
         <v>354</v>
@@ -3288,7 +3290,9 @@
       <c r="F28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>342</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
         <v>360</v>
@@ -4735,6 +4739,16 @@
     <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30B7C68-B8A4-42D4-ABBC-60D3E81AE3AB}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B0EC59-0E98-4FE7-BE30-96EAE5F7C1A8}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="483">
   <si>
     <t>EEUS</t>
   </si>
@@ -1754,14 +1754,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -2334,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3291,7 +3284,7 @@
         <v>115</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>342</v>
+        <v>456</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
@@ -4749,6 +4742,11 @@
     <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4756,17 +4754,17 @@
     <protectedRange sqref="I33" name="Database"/>
   </protectedRanges>
   <conditionalFormatting sqref="A8:O57">
-    <cfRule type="expression" dxfId="34" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>$A8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E58">
-    <cfRule type="expression" dxfId="33" priority="58">
+    <cfRule type="expression" dxfId="32" priority="58">
       <formula>$A53=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G58">
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>$A58=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9070,47 +9068,47 @@
     <protectedRange sqref="H78" name="Database_1_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="A2:H97">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:N1">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I70">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:K71">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$A71=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:M97">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>$A72=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K70">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:M26">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M71">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>$A27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10403,7 +10401,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$A55=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GUI + Reviews/New indices list.xlsx
+++ b/GUI + Reviews/New indices list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B0EC59-0E98-4FE7-BE30-96EAE5F7C1A8}"/>
+  <xr:revisionPtr revIDLastSave="546" documentId="8_{676A6875-F432-47B7-9717-3084B8EAD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4328702A-4DED-4FB4-8DD5-AF6F7E63812D}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{470E612D-E4A8-42B4-A972-1027153868F9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="487">
   <si>
     <t>EEUS</t>
   </si>
@@ -1490,6 +1490,18 @@
   </si>
   <si>
     <t>IWUTP</t>
+  </si>
+  <si>
+    <t>Even nakijken verkeerde Naming</t>
+  </si>
+  <si>
+    <t>prio</t>
+  </si>
+  <si>
+    <t>Prio</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
   </si>
 </sst>
 </file>
@@ -2327,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BCE2-BE99-4B2E-A17A-1E5FAB5A74C3}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3328,7 +3340,9 @@
       <c r="F29" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="s">
         <v>363</v>
@@ -3371,7 +3385,9 @@
       <c r="F30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
         <v>376</v>
@@ -3589,7 +3605,9 @@
         <v>115</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="I35" s="9" t="s">
         <v>407</v>
       </c>
@@ -3632,7 +3650,9 @@
         <v>115</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="I36" s="4" t="s">
         <v>409</v>
       </c>
@@ -3675,7 +3695,9 @@
         <v>115</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="I37" s="9" t="s">
         <v>411</v>
       </c>
@@ -3718,7 +3740,9 @@
         <v>115</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="I38" s="9" t="s">
         <v>413</v>
       </c>
@@ -3761,7 +3785,9 @@
         <v>115</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="I39" s="9" t="s">
         <v>415</v>
       </c>
@@ -4605,6 +4631,9 @@
       <c r="A62" t="s">
         <v>457</v>
       </c>
+      <c r="B62" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
@@ -4699,54 +4728,72 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B93" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
